--- a/Elemental Sine Generator.xlsx
+++ b/Elemental Sine Generator.xlsx
@@ -8,7 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a7379ca36c7f0d75/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{186AB9D0-C57F-42AC-A775-4C05AC6584BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB44EC07-368D-462E-8517-27D03E7E6EAA}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{186AB9D0-C57F-42AC-A775-4C05AC6584BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2A2C1C85-0460-4518-BAC1-5DCEBABFFA13}"/>
+  <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,10 +486,10 @@
     <t>All</t>
   </si>
   <si>
-    <t>Atom or Molecule</t>
+    <t>H2O2(Hydrogen Peroxide)</t>
   </si>
   <si>
-    <t>H2O2(Hydrogen Peroxide)</t>
+    <t>Atom or Molecule (Insert Values Here!)</t>
   </si>
 </sst>
 </file>
@@ -599,7 +600,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -784,17 +785,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -939,32 +929,18 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -973,6 +949,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -983,7 +968,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -37566,7 +37556,7 @@
   <dimension ref="A31:AG482"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37585,10 +37575,10 @@
   </cols>
   <sheetData>
     <row r="31" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="45"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="26">
         <v>1</v>
       </c>
@@ -37616,10 +37606,10 @@
       <c r="K31" s="26">
         <v>3</v>
       </c>
-      <c r="L31" s="48" t="s">
+      <c r="L31" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="M31" s="49"/>
+      <c r="M31" s="45"/>
       <c r="N31" s="26">
         <v>1</v>
       </c>
@@ -37647,10 +37637,10 @@
       <c r="V31" s="26">
         <v>3</v>
       </c>
-      <c r="W31" s="48" t="s">
+      <c r="W31" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="X31" s="49"/>
+      <c r="X31" s="45"/>
       <c r="Y31" s="26">
         <v>1</v>
       </c>
@@ -37680,132 +37670,132 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="45"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="26">
-        <f>B39</f>
-        <v>10</v>
-      </c>
-      <c r="D32" s="26">
-        <f>B39</f>
-        <v>10</v>
-      </c>
-      <c r="E32" s="26">
-        <f>B39</f>
-        <v>10</v>
-      </c>
-      <c r="F32" s="26">
-        <f>B40</f>
-        <v>10</v>
-      </c>
-      <c r="G32" s="26">
-        <f>B40</f>
-        <v>10</v>
-      </c>
-      <c r="H32" s="26">
-        <f>B40</f>
-        <v>10</v>
-      </c>
-      <c r="I32" s="26">
         <f>B41</f>
         <v>10</v>
       </c>
-      <c r="J32" s="26">
+      <c r="D32" s="26">
         <f>B41</f>
         <v>10</v>
       </c>
-      <c r="K32" s="26">
+      <c r="E32" s="26">
         <f>B41</f>
         <v>10</v>
       </c>
-      <c r="L32" s="48" t="s">
+      <c r="F32" s="26">
+        <f>B42</f>
+        <v>10</v>
+      </c>
+      <c r="G32" s="26">
+        <f>B42</f>
+        <v>10</v>
+      </c>
+      <c r="H32" s="26">
+        <f>B42</f>
+        <v>10</v>
+      </c>
+      <c r="I32" s="26">
+        <f>B43</f>
+        <v>10</v>
+      </c>
+      <c r="J32" s="26">
+        <f>B43</f>
+        <v>10</v>
+      </c>
+      <c r="K32" s="26">
+        <f>B43</f>
+        <v>10</v>
+      </c>
+      <c r="L32" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="M32" s="49"/>
+      <c r="M32" s="45"/>
       <c r="N32" s="26">
-        <f>B39</f>
-        <v>10</v>
-      </c>
-      <c r="O32" s="26">
-        <f>B40</f>
-        <v>10</v>
-      </c>
-      <c r="P32" s="26">
         <f>B41</f>
         <v>10</v>
       </c>
+      <c r="O32" s="26">
+        <f>B42</f>
+        <v>10</v>
+      </c>
+      <c r="P32" s="26">
+        <f>B43</f>
+        <v>10</v>
+      </c>
       <c r="Q32" s="26">
-        <f>B40</f>
+        <f>B42</f>
         <v>10</v>
       </c>
       <c r="R32" s="26">
+        <f>B43</f>
+        <v>10</v>
+      </c>
+      <c r="S32" s="26">
         <f>B41</f>
         <v>10</v>
       </c>
-      <c r="S32" s="26">
-        <f>B39</f>
+      <c r="T32" s="26">
+        <f>B43</f>
         <v>10</v>
       </c>
-      <c r="T32" s="26">
+      <c r="U32" s="26">
         <f>B41</f>
         <v>10</v>
       </c>
-      <c r="U32" s="26">
-        <f>B39</f>
+      <c r="V32" s="26">
+        <f>B42</f>
         <v>10</v>
       </c>
-      <c r="V32" s="26">
-        <f>B40</f>
-        <v>10</v>
-      </c>
-      <c r="W32" s="48" t="s">
+      <c r="W32" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="X32" s="49"/>
+      <c r="X32" s="45"/>
       <c r="Y32" s="26">
-        <f>B39</f>
-        <v>10</v>
-      </c>
-      <c r="Z32" s="26">
         <f>B41</f>
         <v>10</v>
       </c>
+      <c r="Z32" s="26">
+        <f>B43</f>
+        <v>10</v>
+      </c>
       <c r="AA32" s="26">
-        <f>B40</f>
+        <f>B42</f>
         <v>10</v>
       </c>
       <c r="AB32" s="26">
-        <f>B40</f>
+        <f>B42</f>
         <v>10</v>
       </c>
       <c r="AC32" s="26">
-        <f>B39</f>
-        <v>10</v>
-      </c>
-      <c r="AD32" s="26">
         <f>B41</f>
         <v>10</v>
       </c>
+      <c r="AD32" s="26">
+        <f>B43</f>
+        <v>10</v>
+      </c>
       <c r="AE32" s="26">
+        <f>B43</f>
+        <v>10</v>
+      </c>
+      <c r="AF32" s="26">
+        <f>B42</f>
+        <v>10</v>
+      </c>
+      <c r="AG32" s="26">
         <f>B41</f>
         <v>10</v>
       </c>
-      <c r="AF32" s="26">
-        <f>B40</f>
-        <v>10</v>
-      </c>
-      <c r="AG32" s="26">
-        <f>B39</f>
-        <v>10</v>
-      </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="45"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="29">
         <f t="shared" ref="C33:K33" si="0">SQRT((C32^2)+(C31^2))</f>
         <v>10.04987562112089</v>
@@ -37842,10 +37832,10 @@
         <f t="shared" si="0"/>
         <v>10.440306508910551</v>
       </c>
-      <c r="L33" s="48" t="s">
+      <c r="L33" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M33" s="49"/>
+      <c r="M33" s="45"/>
       <c r="N33" s="29">
         <f t="shared" ref="N33:V33" si="1">SQRT((N32^2)+(N31^2))</f>
         <v>10.04987562112089</v>
@@ -37882,10 +37872,10 @@
         <f t="shared" si="1"/>
         <v>10.440306508910551</v>
       </c>
-      <c r="W33" s="48" t="s">
+      <c r="W33" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="X33" s="49"/>
+      <c r="X33" s="45"/>
       <c r="Y33" s="29">
         <f t="shared" ref="Y33:AG33" si="2">SQRT((Y32^2)+(Y31^2))</f>
         <v>10.04987562112089</v>
@@ -37924,10 +37914,10 @@
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="45"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="29">
         <f t="shared" ref="C34:K34" si="3">SIN(C31+C32)</f>
         <v>-0.99999020655070348</v>
@@ -37964,10 +37954,10 @@
         <f t="shared" si="3"/>
         <v>0.42016703682664092</v>
       </c>
-      <c r="L34" s="48" t="s">
+      <c r="L34" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="M34" s="49"/>
+      <c r="M34" s="45"/>
       <c r="N34" s="29">
         <f t="shared" ref="N34:V34" si="4">SIN(N31+N32)</f>
         <v>-0.99999020655070348</v>
@@ -38004,10 +37994,10 @@
         <f t="shared" si="4"/>
         <v>0.42016703682664092</v>
       </c>
-      <c r="W34" s="48" t="s">
+      <c r="W34" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="X34" s="49"/>
+      <c r="X34" s="45"/>
       <c r="Y34" s="29">
         <f t="shared" ref="Y34:AG34" si="5">SIN(Y31+Y32)</f>
         <v>-0.99999020655070348</v>
@@ -38046,10 +38036,10 @@
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="45"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="29">
         <f t="shared" ref="C35:K35" si="6">SIN(C31+C33)</f>
         <v>-0.99852604482002105</v>
@@ -38086,10 +38076,10 @@
         <f t="shared" si="6"/>
         <v>0.76686097956288546</v>
       </c>
-      <c r="L35" s="48" t="s">
+      <c r="L35" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="M35" s="49"/>
+      <c r="M35" s="45"/>
       <c r="N35" s="29">
         <f t="shared" ref="N35:V35" si="7">SIN(N31+N33)</f>
         <v>-0.99852604482002105</v>
@@ -38126,10 +38116,10 @@
         <f t="shared" si="7"/>
         <v>0.76686097956288546</v>
       </c>
-      <c r="W35" s="48" t="s">
+      <c r="W35" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="X35" s="49"/>
+      <c r="X35" s="45"/>
       <c r="Y35" s="29">
         <f t="shared" ref="Y35:AG35" si="8">SIN(Y31+Y33)</f>
         <v>-0.99852604482002105</v>
@@ -38168,10 +38158,10 @@
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="45"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="29">
         <f t="shared" ref="C36:K36" si="9">SIN(C32+C33)</f>
         <v>0.93215488395709845</v>
@@ -38208,10 +38198,10 @@
         <f t="shared" si="9"/>
         <v>0.99980092034821666</v>
       </c>
-      <c r="L36" s="48" t="s">
+      <c r="L36" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M36" s="49"/>
+      <c r="M36" s="45"/>
       <c r="N36" s="29">
         <f t="shared" ref="N36:V36" si="10">SIN(N32+N33)</f>
         <v>0.93215488395709845</v>
@@ -38248,10 +38238,10 @@
         <f t="shared" si="10"/>
         <v>0.99980092034821666</v>
       </c>
-      <c r="W36" s="50" t="s">
+      <c r="W36" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="X36" s="50"/>
+      <c r="X36" s="46"/>
       <c r="Y36" s="29">
         <f t="shared" ref="Y36:AG36" si="11">SIN(Y32+Y33)</f>
         <v>0.93215488395709845</v>
@@ -38317,10 +38307,6 @@
       <c r="AG37" s="21"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A38" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="B38" s="47"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
@@ -38347,12 +38333,10 @@
       <c r="AG38" s="21"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A39" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="27">
-        <v>10</v>
-      </c>
+      <c r="A39" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="53"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
@@ -38379,12 +38363,8 @@
       <c r="AG39" s="21"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A40" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="54">
-        <v>10</v>
-      </c>
+      <c r="A40" s="54"/>
+      <c r="B40" s="54"/>
       <c r="D40" s="20"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
@@ -38413,9 +38393,9 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A41" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="54">
+        <v>3</v>
+      </c>
+      <c r="B41" s="27">
         <v>10</v>
       </c>
       <c r="D41" s="20"/>
@@ -38445,6 +38425,12 @@
       <c r="AG41" s="21"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A42" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="43">
+        <v>10</v>
+      </c>
       <c r="D42" s="20"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
@@ -38472,6 +38458,12 @@
       <c r="AG42" s="21"/>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A43" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="43">
+        <v>10</v>
+      </c>
       <c r="D43" s="20"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
@@ -38580,11 +38572,11 @@
       <c r="AG46" s="21"/>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A48" s="43" t="s">
+      <c r="A48" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="27" t="s">
         <v>3</v>
       </c>
@@ -38593,11 +38585,11 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
       <c r="D49" s="27">
         <v>70</v>
       </c>
@@ -38636,11 +38628,11 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
       <c r="D50" s="27">
         <v>58</v>
       </c>
@@ -38679,11 +38671,11 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
       <c r="D51" s="27">
         <v>78</v>
       </c>
@@ -38731,11 +38723,11 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A52" s="43" t="s">
+      <c r="A52" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
       <c r="D52" s="27">
         <v>66</v>
       </c>
@@ -38783,11 +38775,11 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
       <c r="D53" s="27">
         <v>72</v>
       </c>
@@ -38835,11 +38827,11 @@
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A54" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
+      <c r="A54" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
       <c r="D54" s="27">
         <v>18</v>
       </c>
@@ -38887,11 +38879,11 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A55" s="43" t="s">
+      <c r="A55" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
       <c r="D55" s="27">
         <v>10</v>
       </c>
@@ -42105,9 +42097,27 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
-    <protectedRange sqref="B39:B41" name="Range1"/>
+    <protectedRange sqref="B41:B43" name="Range1"/>
   </protectedRanges>
   <mergeCells count="27">
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L31:M31"/>
     <mergeCell ref="W33:X33"/>
     <mergeCell ref="W32:X32"/>
     <mergeCell ref="W31:X31"/>
@@ -42117,24 +42127,6 @@
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="W35:X35"/>
     <mergeCell ref="W34:X34"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A49:C49"/>
   </mergeCells>
   <conditionalFormatting sqref="H52:P54 C34:K36 N34:V36 AA37:AG46 Y34:AG36 E37:K46 P37:V46">
     <cfRule type="cellIs" dxfId="2" priority="15" operator="lessThan">
@@ -42323,15 +42315,15 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="51" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -42345,7 +42337,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="52"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="1" t="s">
         <v>145</v>
       </c>
@@ -42360,11 +42352,11 @@
       <c r="A17" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="25"/>

--- a/Elemental Sine Generator.xlsx
+++ b/Elemental Sine Generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a7379ca36c7f0d75/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{186AB9D0-C57F-42AC-A775-4C05AC6584BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2A2C1C85-0460-4518-BAC1-5DCEBABFFA13}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{186AB9D0-C57F-42AC-A775-4C05AC6584BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6B02DB36-0E3E-4872-AECC-91BAD28F8109}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -812,7 +812,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -941,6 +941,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -959,6 +960,12 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -967,12 +974,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1347,7 +1348,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$N$36:$V$36</c:f>
+              <c:f>'Sine Generator'!$M$36:$U$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2265,7 +2266,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$W$34</c:f>
+              <c:f>'Sine Generator'!$V$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2287,7 +2288,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$Y$34:$AG$34</c:f>
+              <c:f>'Sine Generator'!$X$34:$AF$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2500,7 +2501,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$W$35</c:f>
+              <c:f>'Sine Generator'!$V$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2522,7 +2523,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$Y$35:$AG$35</c:f>
+              <c:f>'Sine Generator'!$X$35:$AF$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2735,7 +2736,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$W$36</c:f>
+              <c:f>'Sine Generator'!$V$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2757,7 +2758,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$Y$36:$AG$36</c:f>
+              <c:f>'Sine Generator'!$X$36:$AF$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2992,7 +2993,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$N$34:$P$34</c:f>
+              <c:f>'Sine Generator'!$M$34:$O$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3209,7 +3210,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$Q$34:$S$34</c:f>
+              <c:f>'Sine Generator'!$P$34:$R$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3426,7 +3427,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$T$34:$V$34</c:f>
+              <c:f>'Sine Generator'!$S$34:$U$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3884,7 +3885,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$N$35:$P$35</c:f>
+              <c:f>'Sine Generator'!$M$35:$O$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4101,7 +4102,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$Q$35:$S$35</c:f>
+              <c:f>'Sine Generator'!$P$35:$R$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4320,7 +4321,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$T$35:$V$35</c:f>
+              <c:f>'Sine Generator'!$S$35:$U$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4537,7 +4538,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$N$36:$P$36</c:f>
+              <c:f>'Sine Generator'!$M$36:$O$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4754,7 +4755,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$Q$36:$S$36</c:f>
+              <c:f>'Sine Generator'!$P$36:$R$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4971,7 +4972,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$T$36:$V$36</c:f>
+              <c:f>'Sine Generator'!$S$36:$U$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6492,7 +6493,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$W$34</c:f>
+              <c:f>'Sine Generator'!$V$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6514,7 +6515,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$Y$34:$AA$34</c:f>
+              <c:f>'Sine Generator'!$X$34:$Z$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6709,7 +6710,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$W$35</c:f>
+              <c:f>'Sine Generator'!$V$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6731,7 +6732,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$Y$35:$AA$35</c:f>
+              <c:f>'Sine Generator'!$X$35:$Z$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6926,7 +6927,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$W$36</c:f>
+              <c:f>'Sine Generator'!$V$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6948,7 +6949,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$Y$36:$AA$36</c:f>
+              <c:f>'Sine Generator'!$X$36:$Z$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7143,7 +7144,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$W$36</c:f>
+              <c:f>'Sine Generator'!$V$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7165,7 +7166,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$AB$36:$AD$36</c:f>
+              <c:f>'Sine Generator'!$AA$36:$AC$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7360,7 +7361,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$W$35</c:f>
+              <c:f>'Sine Generator'!$V$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7382,7 +7383,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$AB$35:$AD$35</c:f>
+              <c:f>'Sine Generator'!$AA$35:$AC$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7577,7 +7578,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$W$34</c:f>
+              <c:f>'Sine Generator'!$V$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7599,7 +7600,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$AB$34:$AD$34</c:f>
+              <c:f>'Sine Generator'!$AA$34:$AC$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7794,7 +7795,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$W$36</c:f>
+              <c:f>'Sine Generator'!$V$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7816,7 +7817,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$AE$36:$AG$36</c:f>
+              <c:f>'Sine Generator'!$AD$36:$AF$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8011,7 +8012,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$W$35</c:f>
+              <c:f>'Sine Generator'!$V$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8033,7 +8034,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$AE$35:$AG$35</c:f>
+              <c:f>'Sine Generator'!$AD$35:$AF$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8228,7 +8229,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$W$34</c:f>
+              <c:f>'Sine Generator'!$V$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8250,7 +8251,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$AE$34:$AG$34</c:f>
+              <c:f>'Sine Generator'!$AD$34:$AF$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8684,7 +8685,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>('Sine Generator'!$C$34:$K$34,'Sine Generator'!$N$34:$V$34,'Sine Generator'!$Y$34:$AG$34)</c:f>
+              <c:f>('Sine Generator'!$C$34:$K$34,'Sine Generator'!$M$34:$U$34,'Sine Generator'!$X$34:$AF$34)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -8973,7 +8974,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>('Sine Generator'!$C$35:$K$35,'Sine Generator'!$N$35:$V$35,'Sine Generator'!$Y$35:$AG$35)</c:f>
+              <c:f>('Sine Generator'!$C$35:$K$35,'Sine Generator'!$M$35:$U$35,'Sine Generator'!$X$35:$AF$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -9262,7 +9263,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>('Sine Generator'!$C$36:$K$36,'Sine Generator'!$N$36:$V$36,'Sine Generator'!$Y$36:$AG$36)</c:f>
+              <c:f>('Sine Generator'!$C$36:$K$36,'Sine Generator'!$M$36:$U$36,'Sine Generator'!$X$36:$AF$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -10198,7 +10199,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$N$34:$V$34</c:f>
+              <c:f>'Sine Generator'!$M$34:$U$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -10433,7 +10434,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$N$35:$V$35</c:f>
+              <c:f>'Sine Generator'!$M$35:$U$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -33491,10 +33492,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>347133</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>29633</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33527,10 +33528,10 @@
       <xdr:rowOff>7172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>347133</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>7172</xdr:rowOff>
+      <xdr:rowOff>36806</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33563,10 +33564,10 @@
       <xdr:rowOff>152848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6626</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104256</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>347133</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2565</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33593,16 +33594,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>13447</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>696384</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>35859</xdr:rowOff>
+      <xdr:rowOff>29633</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33629,16 +33630,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>22086</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>286668</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>466586</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>633801</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>29633</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33665,16 +33666,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>151185</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>338666</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>34768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>13447</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>7750</xdr:rowOff>
+      <xdr:rowOff>64402</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33701,16 +33702,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>12291</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361541</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>70379</xdr:rowOff>
+      <xdr:rowOff>144463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>25738</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>708675</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>106238</xdr:rowOff>
+      <xdr:rowOff>174097</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33737,16 +33738,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>663</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>616889</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>347796</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>35859</xdr:rowOff>
+      <xdr:rowOff>29633</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33773,16 +33774,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>16786</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>176586</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>344871</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>7252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>30234</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>692005</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>33151</xdr:rowOff>
+      <xdr:rowOff>36885</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33809,16 +33810,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>37757</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>683340</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>176488</xdr:rowOff>
+      <xdr:rowOff>176487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>51205</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>289640</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>34547</xdr:rowOff>
+      <xdr:rowOff>26203</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33845,16 +33846,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>30220</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>728721</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>10583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>43667</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>335021</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>35859</xdr:rowOff>
+      <xdr:rowOff>40216</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33881,16 +33882,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>32636</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>339552</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>4450</xdr:rowOff>
+      <xdr:rowOff>4449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>46083</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>686685</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>40309</xdr:rowOff>
+      <xdr:rowOff>34082</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33917,16 +33918,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>61337</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>675170</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>2274</xdr:rowOff>
+      <xdr:rowOff>2275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>74784</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>281470</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>38133</xdr:rowOff>
+      <xdr:rowOff>31908</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33953,16 +33954,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>16675</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>6090</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>10584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>30122</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>353224</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>35859</xdr:rowOff>
+      <xdr:rowOff>40217</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33989,16 +33990,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>42076</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>359577</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>5522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>55523</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>706710</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>41381</xdr:rowOff>
+      <xdr:rowOff>35155</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34025,16 +34026,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>67475</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>713060</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>2273</xdr:rowOff>
+      <xdr:rowOff>12856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>80922</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>319360</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>38132</xdr:rowOff>
+      <xdr:rowOff>42489</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34061,16 +34062,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>480941</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>512690</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>874641</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>118990</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>29633</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34097,16 +34098,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>795132</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3499</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1203773</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>350632</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>35859</xdr:rowOff>
+      <xdr:rowOff>29633</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34133,16 +34134,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>947368</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>352583</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>135315</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>699717</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>35859</xdr:rowOff>
+      <xdr:rowOff>29633</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34169,16 +34170,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>468242</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>605825</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>52293</xdr:rowOff>
+      <xdr:rowOff>41710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>861942</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>212125</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>103093</xdr:rowOff>
+      <xdr:rowOff>71344</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34205,16 +34206,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>809325</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4992</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>155389</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1217966</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>352125</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>13448</xdr:rowOff>
+      <xdr:rowOff>5106</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34241,16 +34242,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>960067</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>363166</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>28388</xdr:rowOff>
+      <xdr:rowOff>28389</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>148014</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>710300</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>64247</xdr:rowOff>
+      <xdr:rowOff>58023</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34277,16 +34278,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>455542</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>50700</xdr:rowOff>
+      <xdr:rowOff>135367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>849242</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>61842</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>101500</xdr:rowOff>
+      <xdr:rowOff>165001</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34313,16 +34314,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>845931</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3498</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>63404</xdr:rowOff>
+      <xdr:rowOff>137487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1254572</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>350631</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>99263</xdr:rowOff>
+      <xdr:rowOff>167121</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34349,16 +34350,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>960068</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>363167</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>63402</xdr:rowOff>
+      <xdr:rowOff>137485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>148015</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>710301</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>99261</xdr:rowOff>
+      <xdr:rowOff>167119</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34385,16 +34386,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47812</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>270061</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>55656</xdr:rowOff>
+      <xdr:rowOff>140323</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>492312</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>617194</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>106456</xdr:rowOff>
+      <xdr:rowOff>169957</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34421,16 +34422,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254622</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>146796</xdr:rowOff>
+      <xdr:rowOff>178546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>455706</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>601755</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>19796</xdr:rowOff>
+      <xdr:rowOff>28263</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34457,16 +34458,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>22413</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>689164</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>68356</xdr:rowOff>
+      <xdr:rowOff>153023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>35860</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104215</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295464</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2740</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34493,16 +34494,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>146797</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>699123</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>608106</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>305423</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>19797</xdr:rowOff>
+      <xdr:rowOff>60014</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34529,16 +34530,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>22413</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>699747</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>35860</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>306047</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>35859</xdr:rowOff>
+      <xdr:rowOff>29633</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34565,16 +34566,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>513231</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>439148</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>513978</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>45448</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>35859</xdr:rowOff>
+      <xdr:rowOff>29633</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34601,16 +34602,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>527425</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>146797</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>463926</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19797</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>528172</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>70226</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>3362</xdr:rowOff>
+      <xdr:rowOff>49431</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34637,16 +34638,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>527424</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>612091</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>68356</xdr:rowOff>
+      <xdr:rowOff>142439</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>528171</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>218391</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>104215</xdr:rowOff>
+      <xdr:rowOff>172073</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34673,16 +34674,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>400425</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>72341</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>68356</xdr:rowOff>
+      <xdr:rowOff>153022</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>413872</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104215</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419474</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2739</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34709,16 +34710,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>349625</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>148293</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>63876</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>31876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>363072</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>411009</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>6352</xdr:rowOff>
+      <xdr:rowOff>61510</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34745,16 +34746,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>336925</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>51175</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>10584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>350372</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>398308</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>35859</xdr:rowOff>
+      <xdr:rowOff>40217</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34781,16 +34782,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>156136</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>410136</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>68357</xdr:rowOff>
+      <xdr:rowOff>142441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>169583</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>16436</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>104216</xdr:rowOff>
+      <xdr:rowOff>172075</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34817,16 +34818,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>176307</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>126626</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419724</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>41959</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>189754</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>162485</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>26024</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71593</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34853,16 +34854,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>136712</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>411879</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>150159</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>18179</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>35859</xdr:rowOff>
+      <xdr:rowOff>29633</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34889,16 +34890,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>29633</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>376766</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>29633</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34925,16 +34926,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>12701</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>29634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:colOff>359834</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>59268</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34961,16 +34962,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>359833</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2118</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37553,32 +37554,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A31:AG482"/>
+  <dimension ref="A31:AF470"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" customWidth="1"/>
-    <col min="10" max="10" width="20.1796875" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="13" width="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" customWidth="1"/>
+    <col min="1" max="32" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A31" s="47" t="s">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A31" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="48"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="26">
         <v>1</v>
       </c>
@@ -37609,71 +37600,70 @@
       <c r="L31" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="M31" s="45"/>
+      <c r="M31" s="26">
+        <v>1</v>
+      </c>
       <c r="N31" s="26">
+        <v>2</v>
+      </c>
+      <c r="O31" s="26">
+        <v>3</v>
+      </c>
+      <c r="P31" s="26">
         <v>1</v>
       </c>
-      <c r="O31" s="26">
+      <c r="Q31" s="26">
         <v>2</v>
       </c>
-      <c r="P31" s="26">
+      <c r="R31" s="26">
         <v>3</v>
       </c>
-      <c r="Q31" s="26">
+      <c r="S31" s="26">
         <v>1</v>
       </c>
-      <c r="R31" s="26">
+      <c r="T31" s="26">
         <v>2</v>
       </c>
-      <c r="S31" s="26">
+      <c r="U31" s="26">
         <v>3</v>
       </c>
-      <c r="T31" s="26">
+      <c r="V31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="W31" s="46"/>
+      <c r="X31" s="26">
         <v>1</v>
       </c>
-      <c r="U31" s="26">
+      <c r="Y31" s="26">
         <v>2</v>
       </c>
-      <c r="V31" s="26">
+      <c r="Z31" s="26">
         <v>3</v>
       </c>
-      <c r="W31" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="26">
+      <c r="AA31" s="26">
         <v>1</v>
       </c>
-      <c r="Z31" s="26">
+      <c r="AB31" s="26">
         <v>2</v>
       </c>
-      <c r="AA31" s="26">
+      <c r="AC31" s="26">
         <v>3</v>
       </c>
-      <c r="AB31" s="26">
+      <c r="AD31" s="26">
         <v>1</v>
       </c>
-      <c r="AC31" s="26">
+      <c r="AE31" s="26">
         <v>2</v>
       </c>
-      <c r="AD31" s="26">
+      <c r="AF31" s="26">
         <v>3</v>
       </c>
-      <c r="AE31" s="26">
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A32" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="AF31" s="26">
-        <v>2</v>
-      </c>
-      <c r="AG31" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A32" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="48"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="26">
         <f>B41</f>
         <v>10</v>
@@ -37713,53 +37703,56 @@
       <c r="L32" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="M32" s="45"/>
-      <c r="N32" s="26">
+      <c r="M32" s="26">
         <f>B41</f>
         <v>10</v>
       </c>
-      <c r="O32" s="26">
+      <c r="N32" s="26">
         <f>B42</f>
         <v>10</v>
       </c>
-      <c r="P32" s="26">
+      <c r="O32" s="26">
         <f>B43</f>
         <v>10</v>
       </c>
-      <c r="Q32" s="26">
+      <c r="P32" s="26">
         <f>B42</f>
         <v>10</v>
       </c>
-      <c r="R32" s="26">
+      <c r="Q32" s="26">
         <f>B43</f>
         <v>10</v>
       </c>
-      <c r="S32" s="26">
+      <c r="R32" s="26">
         <f>B41</f>
         <v>10</v>
       </c>
-      <c r="T32" s="26">
+      <c r="S32" s="26">
         <f>B43</f>
         <v>10</v>
       </c>
-      <c r="U32" s="26">
+      <c r="T32" s="26">
         <f>B41</f>
         <v>10</v>
       </c>
-      <c r="V32" s="26">
+      <c r="U32" s="26">
         <f>B42</f>
         <v>10</v>
       </c>
-      <c r="W32" s="44" t="s">
+      <c r="V32" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="26">
+      <c r="W32" s="46"/>
+      <c r="X32" s="26">
         <f>B41</f>
         <v>10</v>
       </c>
+      <c r="Y32" s="26">
+        <f>B43</f>
+        <v>10</v>
+      </c>
       <c r="Z32" s="26">
-        <f>B43</f>
+        <f>B42</f>
         <v>10</v>
       </c>
       <c r="AA32" s="26">
@@ -37767,11 +37760,11 @@
         <v>10</v>
       </c>
       <c r="AB32" s="26">
-        <f>B42</f>
+        <f>B41</f>
         <v>10</v>
       </c>
       <c r="AC32" s="26">
-        <f>B41</f>
+        <f>B43</f>
         <v>10</v>
       </c>
       <c r="AD32" s="26">
@@ -37779,23 +37772,19 @@
         <v>10</v>
       </c>
       <c r="AE32" s="26">
-        <f>B43</f>
-        <v>10</v>
-      </c>
-      <c r="AF32" s="26">
         <f>B42</f>
         <v>10</v>
       </c>
-      <c r="AG32" s="26">
+      <c r="AF32" s="26">
         <f>B41</f>
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A33" s="47" t="s">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A33" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="48"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="29">
         <f t="shared" ref="C33:K33" si="0">SQRT((C32^2)+(C31^2))</f>
         <v>10.04987562112089</v>
@@ -37835,89 +37824,88 @@
       <c r="L33" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M33" s="45"/>
+      <c r="M33" s="29">
+        <f t="shared" ref="M33:U33" si="1">SQRT((M32^2)+(M31^2))</f>
+        <v>10.04987562112089</v>
+      </c>
       <c r="N33" s="29">
-        <f t="shared" ref="N33:V33" si="1">SQRT((N32^2)+(N31^2))</f>
-        <v>10.04987562112089</v>
+        <f t="shared" si="1"/>
+        <v>10.198039027185569</v>
       </c>
       <c r="O33" s="29">
         <f t="shared" si="1"/>
-        <v>10.198039027185569</v>
+        <v>10.440306508910551</v>
       </c>
       <c r="P33" s="29">
         <f t="shared" si="1"/>
-        <v>10.440306508910551</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="Q33" s="29">
         <f t="shared" si="1"/>
-        <v>10.04987562112089</v>
+        <v>10.198039027185569</v>
       </c>
       <c r="R33" s="29">
         <f t="shared" si="1"/>
-        <v>10.198039027185569</v>
+        <v>10.440306508910551</v>
       </c>
       <c r="S33" s="29">
         <f t="shared" si="1"/>
-        <v>10.440306508910551</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="T33" s="29">
         <f t="shared" si="1"/>
-        <v>10.04987562112089</v>
+        <v>10.198039027185569</v>
       </c>
       <c r="U33" s="29">
         <f t="shared" si="1"/>
+        <v>10.440306508910551</v>
+      </c>
+      <c r="V33" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="W33" s="46"/>
+      <c r="X33" s="29">
+        <f t="shared" ref="X33:AF33" si="2">SQRT((X32^2)+(X31^2))</f>
+        <v>10.04987562112089</v>
+      </c>
+      <c r="Y33" s="29">
+        <f t="shared" si="2"/>
         <v>10.198039027185569</v>
-      </c>
-      <c r="V33" s="29">
-        <f t="shared" si="1"/>
-        <v>10.440306508910551</v>
-      </c>
-      <c r="W33" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="29">
-        <f t="shared" ref="Y33:AG33" si="2">SQRT((Y32^2)+(Y31^2))</f>
-        <v>10.04987562112089</v>
       </c>
       <c r="Z33" s="29">
         <f t="shared" si="2"/>
-        <v>10.198039027185569</v>
+        <v>10.440306508910551</v>
       </c>
       <c r="AA33" s="29">
         <f t="shared" si="2"/>
-        <v>10.440306508910551</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="AB33" s="29">
         <f t="shared" si="2"/>
-        <v>10.04987562112089</v>
+        <v>10.198039027185569</v>
       </c>
       <c r="AC33" s="29">
         <f t="shared" si="2"/>
-        <v>10.198039027185569</v>
+        <v>10.440306508910551</v>
       </c>
       <c r="AD33" s="29">
         <f t="shared" si="2"/>
-        <v>10.440306508910551</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="AE33" s="29">
         <f t="shared" si="2"/>
-        <v>10.04987562112089</v>
+        <v>10.198039027185569</v>
       </c>
       <c r="AF33" s="29">
         <f t="shared" si="2"/>
-        <v>10.198039027185569</v>
-      </c>
-      <c r="AG33" s="29">
-        <f t="shared" si="2"/>
         <v>10.440306508910551</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A34" s="47" t="s">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A34" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="48"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="29">
         <f t="shared" ref="C34:K34" si="3">SIN(C31+C32)</f>
         <v>-0.99999020655070348</v>
@@ -37957,89 +37945,88 @@
       <c r="L34" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="M34" s="45"/>
+      <c r="M34" s="29">
+        <f t="shared" ref="M34:U34" si="4">SIN(M31+M32)</f>
+        <v>-0.99999020655070348</v>
+      </c>
       <c r="N34" s="29">
-        <f t="shared" ref="N34:V34" si="4">SIN(N31+N32)</f>
-        <v>-0.99999020655070348</v>
+        <f t="shared" si="4"/>
+        <v>-0.53657291800043494</v>
       </c>
       <c r="O34" s="29">
         <f t="shared" si="4"/>
-        <v>-0.53657291800043494</v>
+        <v>0.42016703682664092</v>
       </c>
       <c r="P34" s="29">
         <f t="shared" si="4"/>
-        <v>0.42016703682664092</v>
+        <v>-0.99999020655070348</v>
       </c>
       <c r="Q34" s="29">
         <f t="shared" si="4"/>
-        <v>-0.99999020655070348</v>
+        <v>-0.53657291800043494</v>
       </c>
       <c r="R34" s="29">
         <f t="shared" si="4"/>
-        <v>-0.53657291800043494</v>
+        <v>0.42016703682664092</v>
       </c>
       <c r="S34" s="29">
         <f t="shared" si="4"/>
-        <v>0.42016703682664092</v>
+        <v>-0.99999020655070348</v>
       </c>
       <c r="T34" s="29">
         <f t="shared" si="4"/>
-        <v>-0.99999020655070348</v>
+        <v>-0.53657291800043494</v>
       </c>
       <c r="U34" s="29">
         <f t="shared" si="4"/>
+        <v>0.42016703682664092</v>
+      </c>
+      <c r="V34" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="W34" s="46"/>
+      <c r="X34" s="29">
+        <f t="shared" ref="X34:AF34" si="5">SIN(X31+X32)</f>
+        <v>-0.99999020655070348</v>
+      </c>
+      <c r="Y34" s="29">
+        <f t="shared" si="5"/>
         <v>-0.53657291800043494</v>
-      </c>
-      <c r="V34" s="29">
-        <f t="shared" si="4"/>
-        <v>0.42016703682664092</v>
-      </c>
-      <c r="W34" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="29">
-        <f t="shared" ref="Y34:AG34" si="5">SIN(Y31+Y32)</f>
-        <v>-0.99999020655070348</v>
       </c>
       <c r="Z34" s="29">
         <f t="shared" si="5"/>
-        <v>-0.53657291800043494</v>
+        <v>0.42016703682664092</v>
       </c>
       <c r="AA34" s="29">
         <f t="shared" si="5"/>
-        <v>0.42016703682664092</v>
+        <v>-0.99999020655070348</v>
       </c>
       <c r="AB34" s="29">
         <f t="shared" si="5"/>
-        <v>-0.99999020655070348</v>
+        <v>-0.53657291800043494</v>
       </c>
       <c r="AC34" s="29">
         <f t="shared" si="5"/>
-        <v>-0.53657291800043494</v>
+        <v>0.42016703682664092</v>
       </c>
       <c r="AD34" s="29">
         <f t="shared" si="5"/>
-        <v>0.42016703682664092</v>
+        <v>-0.99999020655070348</v>
       </c>
       <c r="AE34" s="29">
         <f t="shared" si="5"/>
-        <v>-0.99999020655070348</v>
+        <v>-0.53657291800043494</v>
       </c>
       <c r="AF34" s="29">
         <f t="shared" si="5"/>
-        <v>-0.53657291800043494</v>
-      </c>
-      <c r="AG34" s="29">
-        <f t="shared" si="5"/>
         <v>0.42016703682664092</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A35" s="47" t="s">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A35" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="48"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="29">
         <f t="shared" ref="C35:K35" si="6">SIN(C31+C33)</f>
         <v>-0.99852604482002105</v>
@@ -38079,89 +38066,88 @@
       <c r="L35" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="M35" s="45"/>
+      <c r="M35" s="29">
+        <f t="shared" ref="M35:U35" si="7">SIN(M31+M33)</f>
+        <v>-0.99852604482002105</v>
+      </c>
       <c r="N35" s="29">
-        <f t="shared" ref="N35:V35" si="7">SIN(N31+N33)</f>
-        <v>-0.99852604482002105</v>
+        <f t="shared" si="7"/>
+        <v>-0.36005942248831763</v>
       </c>
       <c r="O35" s="29">
         <f t="shared" si="7"/>
-        <v>-0.36005942248831763</v>
+        <v>0.76686097956288546</v>
       </c>
       <c r="P35" s="29">
         <f t="shared" si="7"/>
-        <v>0.76686097956288546</v>
+        <v>-0.99852604482002105</v>
       </c>
       <c r="Q35" s="29">
         <f t="shared" si="7"/>
-        <v>-0.99852604482002105</v>
+        <v>-0.36005942248831763</v>
       </c>
       <c r="R35" s="29">
         <f t="shared" si="7"/>
-        <v>-0.36005942248831763</v>
+        <v>0.76686097956288546</v>
       </c>
       <c r="S35" s="29">
         <f t="shared" si="7"/>
-        <v>0.76686097956288546</v>
+        <v>-0.99852604482002105</v>
       </c>
       <c r="T35" s="29">
         <f t="shared" si="7"/>
-        <v>-0.99852604482002105</v>
+        <v>-0.36005942248831763</v>
       </c>
       <c r="U35" s="29">
         <f t="shared" si="7"/>
+        <v>0.76686097956288546</v>
+      </c>
+      <c r="V35" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="W35" s="46"/>
+      <c r="X35" s="29">
+        <f t="shared" ref="X35:AF35" si="8">SIN(X31+X33)</f>
+        <v>-0.99852604482002105</v>
+      </c>
+      <c r="Y35" s="29">
+        <f t="shared" si="8"/>
         <v>-0.36005942248831763</v>
-      </c>
-      <c r="V35" s="29">
-        <f t="shared" si="7"/>
-        <v>0.76686097956288546</v>
-      </c>
-      <c r="W35" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="X35" s="45"/>
-      <c r="Y35" s="29">
-        <f t="shared" ref="Y35:AG35" si="8">SIN(Y31+Y33)</f>
-        <v>-0.99852604482002105</v>
       </c>
       <c r="Z35" s="29">
         <f t="shared" si="8"/>
-        <v>-0.36005942248831763</v>
+        <v>0.76686097956288546</v>
       </c>
       <c r="AA35" s="29">
         <f t="shared" si="8"/>
-        <v>0.76686097956288546</v>
+        <v>-0.99852604482002105</v>
       </c>
       <c r="AB35" s="29">
         <f t="shared" si="8"/>
-        <v>-0.99852604482002105</v>
+        <v>-0.36005942248831763</v>
       </c>
       <c r="AC35" s="29">
         <f t="shared" si="8"/>
-        <v>-0.36005942248831763</v>
+        <v>0.76686097956288546</v>
       </c>
       <c r="AD35" s="29">
         <f t="shared" si="8"/>
-        <v>0.76686097956288546</v>
+        <v>-0.99852604482002105</v>
       </c>
       <c r="AE35" s="29">
         <f t="shared" si="8"/>
-        <v>-0.99852604482002105</v>
+        <v>-0.36005942248831763</v>
       </c>
       <c r="AF35" s="29">
         <f t="shared" si="8"/>
-        <v>-0.36005942248831763</v>
-      </c>
-      <c r="AG35" s="29">
-        <f t="shared" si="8"/>
         <v>0.76686097956288546</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A36" s="47" t="s">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A36" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="48"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="29">
         <f t="shared" ref="C36:K36" si="9">SIN(C32+C33)</f>
         <v>0.93215488395709845</v>
@@ -38201,100 +38187,94 @@
       <c r="L36" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M36" s="45"/>
+      <c r="M36" s="29">
+        <f t="shared" ref="M36:U36" si="10">SIN(M32+M33)</f>
+        <v>0.93215488395709845</v>
+      </c>
       <c r="N36" s="29">
-        <f t="shared" ref="N36:V36" si="10">SIN(N32+N33)</f>
-        <v>0.93215488395709845</v>
+        <f t="shared" si="10"/>
+        <v>0.9753900253929676</v>
       </c>
       <c r="O36" s="29">
         <f t="shared" si="10"/>
-        <v>0.9753900253929676</v>
+        <v>0.99980092034821666</v>
       </c>
       <c r="P36" s="29">
         <f t="shared" si="10"/>
-        <v>0.99980092034821666</v>
+        <v>0.93215488395709845</v>
       </c>
       <c r="Q36" s="29">
         <f t="shared" si="10"/>
-        <v>0.93215488395709845</v>
+        <v>0.9753900253929676</v>
       </c>
       <c r="R36" s="29">
         <f t="shared" si="10"/>
-        <v>0.9753900253929676</v>
+        <v>0.99980092034821666</v>
       </c>
       <c r="S36" s="29">
         <f t="shared" si="10"/>
-        <v>0.99980092034821666</v>
+        <v>0.93215488395709845</v>
       </c>
       <c r="T36" s="29">
         <f t="shared" si="10"/>
-        <v>0.93215488395709845</v>
+        <v>0.9753900253929676</v>
       </c>
       <c r="U36" s="29">
         <f t="shared" si="10"/>
+        <v>0.99980092034821666</v>
+      </c>
+      <c r="V36" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="W36" s="47"/>
+      <c r="X36" s="29">
+        <f t="shared" ref="X36:AF36" si="11">SIN(X32+X33)</f>
+        <v>0.93215488395709845</v>
+      </c>
+      <c r="Y36" s="29">
+        <f t="shared" si="11"/>
         <v>0.9753900253929676</v>
-      </c>
-      <c r="V36" s="29">
-        <f t="shared" si="10"/>
-        <v>0.99980092034821666</v>
-      </c>
-      <c r="W36" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="X36" s="46"/>
-      <c r="Y36" s="29">
-        <f t="shared" ref="Y36:AG36" si="11">SIN(Y32+Y33)</f>
-        <v>0.93215488395709845</v>
       </c>
       <c r="Z36" s="29">
         <f t="shared" si="11"/>
-        <v>0.9753900253929676</v>
+        <v>0.99980092034821666</v>
       </c>
       <c r="AA36" s="29">
         <f t="shared" si="11"/>
-        <v>0.99980092034821666</v>
+        <v>0.93215488395709845</v>
       </c>
       <c r="AB36" s="29">
         <f t="shared" si="11"/>
-        <v>0.93215488395709845</v>
+        <v>0.9753900253929676</v>
       </c>
       <c r="AC36" s="29">
         <f t="shared" si="11"/>
-        <v>0.9753900253929676</v>
+        <v>0.99980092034821666</v>
       </c>
       <c r="AD36" s="29">
         <f t="shared" si="11"/>
-        <v>0.99980092034821666</v>
+        <v>0.93215488395709845</v>
       </c>
       <c r="AE36" s="29">
         <f t="shared" si="11"/>
-        <v>0.93215488395709845</v>
+        <v>0.9753900253929676</v>
       </c>
       <c r="AF36" s="29">
         <f t="shared" si="11"/>
-        <v>0.9753900253929676</v>
-      </c>
-      <c r="AG36" s="29">
-        <f t="shared" si="11"/>
         <v>0.99980092034821666</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
       <c r="O37" s="20"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
       <c r="W37" s="22"/>
       <c r="X37" s="22"/>
       <c r="Z37" s="20"/>
@@ -38302,96 +38282,68 @@
       <c r="AB37" s="21"/>
       <c r="AC37" s="21"/>
       <c r="AD37" s="21"/>
-      <c r="AE37" s="21"/>
-      <c r="AF37" s="21"/>
-      <c r="AG37" s="21"/>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="E38" s="21"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
       <c r="O38" s="20"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="21"/>
       <c r="R38" s="21"/>
       <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
       <c r="W38" s="22"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="21"/>
       <c r="AB38" s="21"/>
       <c r="AC38" s="21"/>
       <c r="AD38" s="21"/>
-      <c r="AE38" s="21"/>
-      <c r="AF38" s="21"/>
-      <c r="AG38" s="21"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A39" s="53" t="s">
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A39" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="B39" s="53"/>
+      <c r="B39" s="51"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
       <c r="O39" s="20"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="21"/>
       <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
       <c r="W39" s="22"/>
       <c r="Z39" s="20"/>
       <c r="AA39" s="21"/>
       <c r="AB39" s="21"/>
       <c r="AC39" s="21"/>
       <c r="AD39" s="21"/>
-      <c r="AE39" s="21"/>
-      <c r="AF39" s="21"/>
-      <c r="AG39" s="21"/>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
       <c r="D40" s="20"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
       <c r="O40" s="20"/>
       <c r="P40" s="21"/>
       <c r="Q40" s="21"/>
       <c r="R40" s="21"/>
       <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
       <c r="W40" s="22"/>
       <c r="Z40" s="20"/>
       <c r="AA40" s="21"/>
       <c r="AB40" s="21"/>
       <c r="AC40" s="21"/>
       <c r="AD40" s="21"/>
-      <c r="AE40" s="21"/>
-      <c r="AF40" s="21"/>
-      <c r="AG40" s="21"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A41" s="28" t="s">
         <v>3</v>
       </c>
@@ -38404,27 +38356,19 @@
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
       <c r="O41" s="20"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
       <c r="W41" s="22"/>
       <c r="Z41" s="20"/>
       <c r="AA41" s="21"/>
       <c r="AB41" s="21"/>
       <c r="AC41" s="21"/>
       <c r="AD41" s="21"/>
-      <c r="AE41" s="21"/>
-      <c r="AF41" s="21"/>
-      <c r="AG41" s="21"/>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A42" s="27" t="s">
         <v>4</v>
       </c>
@@ -38437,27 +38381,19 @@
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
       <c r="O42" s="20"/>
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
       <c r="R42" s="21"/>
       <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
       <c r="W42" s="22"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="21"/>
       <c r="AB42" s="21"/>
       <c r="AC42" s="21"/>
       <c r="AD42" s="21"/>
-      <c r="AE42" s="21"/>
-      <c r="AF42" s="21"/>
-      <c r="AG42" s="21"/>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A43" s="28" t="s">
         <v>5</v>
       </c>
@@ -38470,113 +38406,81 @@
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
       <c r="O43" s="20"/>
       <c r="P43" s="21"/>
       <c r="Q43" s="21"/>
       <c r="R43" s="21"/>
       <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
       <c r="W43" s="22"/>
       <c r="Z43" s="20"/>
       <c r="AA43" s="21"/>
       <c r="AB43" s="21"/>
       <c r="AC43" s="21"/>
       <c r="AD43" s="21"/>
-      <c r="AE43" s="21"/>
-      <c r="AF43" s="21"/>
-      <c r="AG43" s="21"/>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D44" s="20"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
       <c r="O44" s="20"/>
       <c r="P44" s="21"/>
       <c r="Q44" s="21"/>
       <c r="R44" s="21"/>
       <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
       <c r="W44" s="22"/>
       <c r="Z44" s="20"/>
       <c r="AA44" s="21"/>
       <c r="AB44" s="21"/>
       <c r="AC44" s="21"/>
       <c r="AD44" s="21"/>
-      <c r="AE44" s="21"/>
-      <c r="AF44" s="21"/>
-      <c r="AG44" s="21"/>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D45" s="20"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
       <c r="O45" s="20"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
       <c r="W45" s="22"/>
       <c r="Z45" s="20"/>
       <c r="AA45" s="21"/>
       <c r="AB45" s="21"/>
       <c r="AC45" s="21"/>
       <c r="AD45" s="21"/>
-      <c r="AE45" s="21"/>
-      <c r="AF45" s="21"/>
-      <c r="AG45" s="21"/>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D46" s="20"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
       <c r="O46" s="20"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
       <c r="W46" s="22"/>
       <c r="Z46" s="20"/>
       <c r="AA46" s="21"/>
       <c r="AB46" s="21"/>
       <c r="AC46" s="21"/>
       <c r="AD46" s="21"/>
-      <c r="AE46" s="21"/>
-      <c r="AF46" s="21"/>
-      <c r="AG46" s="21"/>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A48" s="49" t="s">
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A48" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
       <c r="D48" s="27" t="s">
         <v>3</v>
       </c>
@@ -38585,11 +38489,11 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
       <c r="D49" s="27">
         <v>70</v>
       </c>
@@ -38628,11 +38532,11 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
       <c r="D50" s="27">
         <v>58</v>
       </c>
@@ -38671,11 +38575,11 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A51" s="49" t="s">
+      <c r="A51" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
       <c r="D51" s="27">
         <v>78</v>
       </c>
@@ -38694,11 +38598,11 @@
         <v>6.324555320336759</v>
       </c>
       <c r="J51" s="27">
-        <f t="shared" si="12"/>
+        <f>SQRT(J49^2+J50^2)</f>
         <v>7.6157731058639087</v>
       </c>
       <c r="K51" s="27">
-        <f t="shared" si="12"/>
+        <f>SQRT(K49^2+K50^2)</f>
         <v>8.9442719099991592</v>
       </c>
       <c r="L51" s="27">
@@ -38723,11 +38627,11 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A52" s="49" t="s">
+      <c r="A52" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
       <c r="D52" s="27">
         <v>66</v>
       </c>
@@ -38746,11 +38650,11 @@
         <v>0.98935824662338179</v>
       </c>
       <c r="J52" s="28">
-        <f t="shared" si="13"/>
+        <f>SIN(J49+J50)</f>
         <v>-0.54402111088936977</v>
       </c>
       <c r="K52" s="28">
-        <f t="shared" si="13"/>
+        <f>SIN(K49+K50)</f>
         <v>-0.53657291800043494</v>
       </c>
       <c r="L52" s="28">
@@ -38775,11 +38679,11 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A53" s="49" t="s">
+      <c r="A53" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
       <c r="D53" s="27">
         <v>72</v>
       </c>
@@ -38798,11 +38702,11 @@
         <v>0.89130832680928707</v>
       </c>
       <c r="J53" s="28">
-        <f t="shared" si="14"/>
+        <f>SIN(J49+J51)</f>
         <v>-0.92873836299859158</v>
       </c>
       <c r="K53" s="28">
-        <f t="shared" si="14"/>
+        <f>SIN(K49+K51)</f>
         <v>0.36897066145361995</v>
       </c>
       <c r="L53" s="28">
@@ -38827,11 +38731,11 @@
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A54" s="49" t="s">
+      <c r="A54" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
       <c r="D54" s="27">
         <v>18</v>
       </c>
@@ -38850,11 +38754,11 @@
         <v>-0.23946549782849449</v>
       </c>
       <c r="J54" s="28">
-        <f t="shared" si="15"/>
+        <f>SIN(J50+J51)</f>
         <v>0.88763770506555939</v>
       </c>
       <c r="K54" s="28">
-        <f t="shared" si="15"/>
+        <f>SIN(K50+K51)</f>
         <v>-0.94457861914824226</v>
       </c>
       <c r="L54" s="28">
@@ -38879,11 +38783,11 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A55" s="49" t="s">
+      <c r="A55" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
       <c r="D55" s="27">
         <v>10</v>
       </c>
@@ -40738,7 +40642,7 @@
         <v>223.0197</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" s="37">
         <v>88</v>
       </c>
@@ -40759,7 +40663,7 @@
         <v>226.02539999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" s="37">
         <v>89</v>
       </c>
@@ -40780,7 +40684,7 @@
         <v>227.02780000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" s="37">
         <v>90</v>
       </c>
@@ -40801,7 +40705,7 @@
         <v>232.03809999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" s="37">
         <v>91</v>
       </c>
@@ -40822,7 +40726,7 @@
         <v>231.0359</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" s="37">
         <v>92</v>
       </c>
@@ -40843,7 +40747,7 @@
         <v>238.02889999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" s="37">
         <v>93</v>
       </c>
@@ -40864,7 +40768,7 @@
         <v>237.04820000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" s="37">
         <v>94</v>
       </c>
@@ -40885,7 +40789,7 @@
         <v>244.0642</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" s="37">
         <v>95</v>
       </c>
@@ -40905,8 +40809,9 @@
       <c r="F152" s="38">
         <v>243.06139999999999</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J152" s="32"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" s="37">
         <v>96</v>
       </c>
@@ -40926,8 +40831,9 @@
       <c r="F153" s="38">
         <v>247.0703</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J153" s="33"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" s="37">
         <v>97</v>
       </c>
@@ -40947,8 +40853,9 @@
       <c r="F154" s="38">
         <v>247.0703</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J154" s="30"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" s="37">
         <v>98</v>
       </c>
@@ -40968,8 +40875,9 @@
       <c r="F155" s="38">
         <v>251.0796</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J155" s="31"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" s="37">
         <v>99</v>
       </c>
@@ -40989,8 +40897,9 @@
       <c r="F156" s="38">
         <v>252.083</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J156" s="32"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" s="37">
         <v>100</v>
       </c>
@@ -41010,8 +40919,9 @@
       <c r="F157" s="38">
         <v>257.0951</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J157" s="33"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" s="37">
         <v>101</v>
       </c>
@@ -41031,8 +40941,9 @@
       <c r="F158" s="38">
         <v>258.10000000000002</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J158" s="30"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" s="37">
         <v>102</v>
       </c>
@@ -41052,8 +40963,9 @@
       <c r="F159" s="38">
         <v>259.10090000000002</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J159" s="31"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" s="37">
         <v>103</v>
       </c>
@@ -41073,6 +40985,7 @@
       <c r="F160" s="38">
         <v>262.11</v>
       </c>
+      <c r="J160" s="32"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" s="37">
@@ -41094,6 +41007,7 @@
       <c r="F161" s="38">
         <v>261.11</v>
       </c>
+      <c r="J161" s="33"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" s="37">
@@ -41115,6 +41029,7 @@
       <c r="F162" s="38">
         <v>262.11399999999998</v>
       </c>
+      <c r="J162" s="30"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" s="37">
@@ -41136,6 +41051,7 @@
       <c r="F163" s="38">
         <v>263.11799999999999</v>
       </c>
+      <c r="J163" s="31"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J164" s="32"/>
@@ -42057,55 +41973,18 @@
     </row>
     <row r="470" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J470" s="30"/>
-    </row>
-    <row r="471" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J471" s="31"/>
-    </row>
-    <row r="472" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J472" s="32"/>
-    </row>
-    <row r="473" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J473" s="33"/>
-    </row>
-    <row r="474" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J474" s="30"/>
-    </row>
-    <row r="475" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J475" s="31"/>
-    </row>
-    <row r="476" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J476" s="32"/>
-    </row>
-    <row r="477" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J477" s="33"/>
-    </row>
-    <row r="478" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J478" s="30"/>
-    </row>
-    <row r="479" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J479" s="31"/>
-    </row>
-    <row r="480" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J480" s="32"/>
-    </row>
-    <row r="481" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J481" s="33"/>
-    </row>
-    <row r="482" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J482" s="30"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="B41:B43" name="Range1"/>
   </protectedRanges>
-  <mergeCells count="27">
+  <mergeCells count="21">
     <mergeCell ref="A55:C55"/>
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A48:C48"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A33:B33"/>
@@ -42115,20 +41994,15 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V34:W34"/>
   </mergeCells>
-  <conditionalFormatting sqref="H52:P54 C34:K36 N34:V36 AA37:AG46 Y34:AG36 E37:K46 P37:V46">
+  <conditionalFormatting sqref="C34:K36 M34:U36 AA37:AD46 X34:AF36 P37:S46 E37:I37 F38:I38 E39:I46 H52:P54">
     <cfRule type="cellIs" dxfId="2" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -42315,15 +42189,15 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="54" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -42337,7 +42211,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="51"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="1" t="s">
         <v>145</v>
       </c>
@@ -42352,11 +42226,11 @@
       <c r="A17" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="25"/>

--- a/Elemental Sine Generator.xlsx
+++ b/Elemental Sine Generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a7379ca36c7f0d75/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{186AB9D0-C57F-42AC-A775-4C05AC6584BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6B02DB36-0E3E-4872-AECC-91BAD28F8109}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{186AB9D0-C57F-42AC-A775-4C05AC6584BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4AF6E247-0BC0-41F6-AA63-B46C7C78E07C}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -496,7 +496,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +568,14 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -600,7 +608,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -806,13 +814,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -942,24 +961,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -974,6 +975,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1093,7 +1115,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$G$52</c:f>
+              <c:f>'Sine Generator'!$D$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1113,7 +1135,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$H$52:$P$52</c:f>
+              <c:f>'Sine Generator'!$E$52:$M$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1326,7 +1348,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$L$36</c:f>
+              <c:f>'Sine Generator'!$K$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1348,7 +1370,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$M$36:$U$36</c:f>
+              <c:f>'Sine Generator'!$L$36:$T$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1359,19 +1381,19 @@
                   <c:v>0.9753900253929676</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99980092034821666</c:v>
+                  <c:v>-0.74199445552936483</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.93215488395709845</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9753900253929676</c:v>
+                  <c:v>-0.51263248339061407</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.99980092034821666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93215488395709845</c:v>
+                  <c:v>-0.34692875075972285</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.9753900253929676</c:v>
@@ -1583,7 +1605,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$C$34:$K$34</c:f>
+              <c:f>'Sine Generator'!$B$34:$J$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1606,13 +1628,13 @@
                   <c:v>0.42016703682664092</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.99999020655070348</c:v>
+                  <c:v>0.41211848524175659</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.53657291800043494</c:v>
+                  <c:v>-0.54402111088936977</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.42016703682664092</c:v>
+                  <c:v>-0.99999020655070348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1818,7 +1840,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$C$35:$K$35</c:f>
+              <c:f>'Sine Generator'!$B$35:$J$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1841,13 +1863,13 @@
                   <c:v>0.76686097956288546</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.99852604482002105</c:v>
+                  <c:v>0.35463177089553088</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.36005942248831763</c:v>
+                  <c:v>-0.732122899539979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.76686097956288546</c:v>
+                  <c:v>-0.85334437267736873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2053,7 +2075,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$C$36:$K$36</c:f>
+              <c:f>'Sine Generator'!$B$36:$J$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2076,13 +2098,13 @@
                   <c:v>0.99980092034821666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93215488395709845</c:v>
+                  <c:v>-0.34692875075972285</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9753900253929676</c:v>
+                  <c:v>-0.51263248339061407</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99980092034821666</c:v>
+                  <c:v>-0.74199445552936483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2266,7 +2288,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$V$34</c:f>
+              <c:f>'Sine Generator'!$U$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2288,7 +2310,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$X$34:$AF$34</c:f>
+              <c:f>'Sine Generator'!$V$34:$AD$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2296,7 +2318,7 @@
                   <c:v>-0.99999020655070348</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.53657291800043494</c:v>
+                  <c:v>-0.54402111088936977</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.42016703682664092</c:v>
@@ -2308,10 +2330,10 @@
                   <c:v>-0.53657291800043494</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.42016703682664092</c:v>
+                  <c:v>-0.99999020655070348</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.99999020655070348</c:v>
+                  <c:v>0.41211848524175659</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-0.53657291800043494</c:v>
@@ -2501,7 +2523,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$V$35</c:f>
+              <c:f>'Sine Generator'!$U$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2523,7 +2545,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$X$35:$AF$35</c:f>
+              <c:f>'Sine Generator'!$V$35:$AD$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2531,7 +2553,7 @@
                   <c:v>-0.99852604482002105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.36005942248831763</c:v>
+                  <c:v>-0.732122899539979</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.76686097956288546</c:v>
@@ -2543,10 +2565,10 @@
                   <c:v>-0.36005942248831763</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76686097956288546</c:v>
+                  <c:v>-0.85334437267736873</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.99852604482002105</c:v>
+                  <c:v>0.35463177089553088</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-0.36005942248831763</c:v>
@@ -2736,7 +2758,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$V$36</c:f>
+              <c:f>'Sine Generator'!$U$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2758,7 +2780,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$X$36:$AF$36</c:f>
+              <c:f>'Sine Generator'!$V$36:$AD$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2766,7 +2788,7 @@
                   <c:v>0.93215488395709845</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9753900253929676</c:v>
+                  <c:v>-0.51263248339061407</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.99980092034821666</c:v>
@@ -2778,10 +2800,10 @@
                   <c:v>0.9753900253929676</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99980092034821666</c:v>
+                  <c:v>-0.74199445552936483</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93215488395709845</c:v>
+                  <c:v>-0.34692875075972285</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.9753900253929676</c:v>
@@ -2971,7 +2993,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$L$34</c:f>
+              <c:f>'Sine Generator'!$K$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2993,7 +3015,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$M$34:$O$34</c:f>
+              <c:f>'Sine Generator'!$L$34:$N$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3004,7 +3026,7 @@
                   <c:v>-0.53657291800043494</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42016703682664092</c:v>
+                  <c:v>-0.99999020655070348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3188,7 +3210,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$L$34</c:f>
+              <c:f>'Sine Generator'!$K$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3210,7 +3232,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$P$34:$R$34</c:f>
+              <c:f>'Sine Generator'!$O$34:$Q$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3218,7 +3240,7 @@
                   <c:v>-0.99999020655070348</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.53657291800043494</c:v>
+                  <c:v>-0.54402111088936977</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.42016703682664092</c:v>
@@ -3405,7 +3427,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$L$34</c:f>
+              <c:f>'Sine Generator'!$K$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3427,12 +3449,12 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$S$34:$U$34</c:f>
+              <c:f>'Sine Generator'!$R$34:$T$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-0.99999020655070348</c:v>
+                  <c:v>0.41211848524175659</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-0.53657291800043494</c:v>
@@ -3630,7 +3652,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$G$53</c:f>
+              <c:f>'Sine Generator'!$D$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3650,7 +3672,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$H$53:$P$53</c:f>
+              <c:f>'Sine Generator'!$E$53:$M$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3863,7 +3885,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$L$35</c:f>
+              <c:f>'Sine Generator'!$K$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3885,7 +3907,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$M$35:$O$35</c:f>
+              <c:f>'Sine Generator'!$L$35:$N$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3896,7 +3918,7 @@
                   <c:v>-0.36005942248831763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76686097956288546</c:v>
+                  <c:v>-0.85334437267736873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4080,7 +4102,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$L$35</c:f>
+              <c:f>'Sine Generator'!$K$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4102,7 +4124,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$P$35:$R$35</c:f>
+              <c:f>'Sine Generator'!$O$35:$Q$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4110,7 +4132,7 @@
                   <c:v>-0.99852604482002105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.36005942248831763</c:v>
+                  <c:v>-0.732122899539979</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.76686097956288546</c:v>
@@ -4299,7 +4321,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$L$35</c:f>
+              <c:f>'Sine Generator'!$K$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4321,12 +4343,12 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$S$35:$U$35</c:f>
+              <c:f>'Sine Generator'!$R$35:$T$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-0.99852604482002105</c:v>
+                  <c:v>0.35463177089553088</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-0.36005942248831763</c:v>
@@ -4516,7 +4538,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$L$36</c:f>
+              <c:f>'Sine Generator'!$K$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4538,7 +4560,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$M$36:$O$36</c:f>
+              <c:f>'Sine Generator'!$L$36:$N$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4549,7 +4571,7 @@
                   <c:v>0.9753900253929676</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99980092034821666</c:v>
+                  <c:v>-0.74199445552936483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4733,7 +4755,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$L$36</c:f>
+              <c:f>'Sine Generator'!$K$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4755,7 +4777,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$P$36:$R$36</c:f>
+              <c:f>'Sine Generator'!$O$36:$Q$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4763,7 +4785,7 @@
                   <c:v>0.93215488395709845</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9753900253929676</c:v>
+                  <c:v>-0.51263248339061407</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.99980092034821666</c:v>
@@ -4950,7 +4972,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$L$36</c:f>
+              <c:f>'Sine Generator'!$K$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4972,12 +4994,12 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$S$36:$U$36</c:f>
+              <c:f>'Sine Generator'!$R$36:$T$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.93215488395709845</c:v>
+                  <c:v>-0.34692875075972285</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.9753900253929676</c:v>
@@ -5189,18 +5211,18 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$I$36:$K$36</c:f>
+              <c:f>'Sine Generator'!$H$36:$J$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.93215488395709845</c:v>
+                  <c:v>-0.34692875075972285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9753900253929676</c:v>
+                  <c:v>-0.51263248339061407</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99980092034821666</c:v>
+                  <c:v>-0.74199445552936483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5406,18 +5428,18 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$I$35:$K$35</c:f>
+              <c:f>'Sine Generator'!$H$35:$J$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-0.99852604482002105</c:v>
+                  <c:v>0.35463177089553088</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.36005942248831763</c:v>
+                  <c:v>-0.732122899539979</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76686097956288546</c:v>
+                  <c:v>-0.85334437267736873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5623,7 +5645,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$F$36:$H$36</c:f>
+              <c:f>'Sine Generator'!$E$36:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5840,7 +5862,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$F$35:$H$35</c:f>
+              <c:f>'Sine Generator'!$E$35:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6043,7 +6065,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$G$54</c:f>
+              <c:f>'Sine Generator'!$D$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6063,7 +6085,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$H$54:$P$54</c:f>
+              <c:f>'Sine Generator'!$E$54:$M$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -6298,7 +6320,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$F$34:$H$34</c:f>
+              <c:f>'Sine Generator'!$E$34:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6493,7 +6515,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$V$34</c:f>
+              <c:f>'Sine Generator'!$U$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6515,7 +6537,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$X$34:$Z$34</c:f>
+              <c:f>'Sine Generator'!$V$34:$X$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6523,7 +6545,7 @@
                   <c:v>-0.99999020655070348</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.53657291800043494</c:v>
+                  <c:v>-0.54402111088936977</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.42016703682664092</c:v>
@@ -6710,7 +6732,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$V$35</c:f>
+              <c:f>'Sine Generator'!$U$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6732,7 +6754,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$X$35:$Z$35</c:f>
+              <c:f>'Sine Generator'!$V$35:$X$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6740,7 +6762,7 @@
                   <c:v>-0.99852604482002105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.36005942248831763</c:v>
+                  <c:v>-0.732122899539979</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.76686097956288546</c:v>
@@ -6927,7 +6949,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$V$36</c:f>
+              <c:f>'Sine Generator'!$U$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6949,7 +6971,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$X$36:$Z$36</c:f>
+              <c:f>'Sine Generator'!$V$36:$X$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6957,7 +6979,7 @@
                   <c:v>0.93215488395709845</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9753900253929676</c:v>
+                  <c:v>-0.51263248339061407</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.99980092034821666</c:v>
@@ -7144,7 +7166,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$V$36</c:f>
+              <c:f>'Sine Generator'!$U$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7166,7 +7188,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$AA$36:$AC$36</c:f>
+              <c:f>'Sine Generator'!$Y$36:$AA$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7177,7 +7199,7 @@
                   <c:v>0.9753900253929676</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99980092034821666</c:v>
+                  <c:v>-0.74199445552936483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7361,7 +7383,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$V$35</c:f>
+              <c:f>'Sine Generator'!$U$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7383,7 +7405,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$AA$35:$AC$35</c:f>
+              <c:f>'Sine Generator'!$Y$35:$AA$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7394,7 +7416,7 @@
                   <c:v>-0.36005942248831763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76686097956288546</c:v>
+                  <c:v>-0.85334437267736873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7578,7 +7600,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$V$34</c:f>
+              <c:f>'Sine Generator'!$U$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7600,7 +7622,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$AA$34:$AC$34</c:f>
+              <c:f>'Sine Generator'!$Y$34:$AA$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7611,7 +7633,7 @@
                   <c:v>-0.53657291800043494</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42016703682664092</c:v>
+                  <c:v>-0.99999020655070348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7795,7 +7817,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$V$36</c:f>
+              <c:f>'Sine Generator'!$U$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7817,12 +7839,12 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$AD$36:$AF$36</c:f>
+              <c:f>'Sine Generator'!$AB$36:$AD$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.93215488395709845</c:v>
+                  <c:v>-0.34692875075972285</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.9753900253929676</c:v>
@@ -8012,7 +8034,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$V$35</c:f>
+              <c:f>'Sine Generator'!$U$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8034,12 +8056,12 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$AD$35:$AF$35</c:f>
+              <c:f>'Sine Generator'!$AB$35:$AD$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-0.99852604482002105</c:v>
+                  <c:v>0.35463177089553088</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-0.36005942248831763</c:v>
@@ -8229,7 +8251,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$V$34</c:f>
+              <c:f>'Sine Generator'!$U$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8251,12 +8273,12 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$AD$34:$AF$34</c:f>
+              <c:f>'Sine Generator'!$AB$34:$AD$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-0.99999020655070348</c:v>
+                  <c:v>0.41211848524175659</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-0.53657291800043494</c:v>
@@ -8468,7 +8490,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$C$34:$E$34</c:f>
+              <c:f>'Sine Generator'!$B$34:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8685,7 +8707,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>('Sine Generator'!$C$34:$K$34,'Sine Generator'!$M$34:$U$34,'Sine Generator'!$X$34:$AF$34)</c:f>
+              <c:f>('Sine Generator'!$B$34:$J$34,'Sine Generator'!$L$34:$T$34,'Sine Generator'!$V$34:$AD$34)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -8708,13 +8730,13 @@
                   <c:v>0.42016703682664092</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.99999020655070348</c:v>
+                  <c:v>0.41211848524175659</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.53657291800043494</c:v>
+                  <c:v>-0.54402111088936977</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.42016703682664092</c:v>
+                  <c:v>-0.99999020655070348</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-0.99999020655070348</c:v>
@@ -8723,19 +8745,19 @@
                   <c:v>-0.53657291800043494</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.42016703682664092</c:v>
+                  <c:v>-0.99999020655070348</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-0.99999020655070348</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.53657291800043494</c:v>
+                  <c:v>-0.54402111088936977</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.42016703682664092</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.99999020655070348</c:v>
+                  <c:v>0.41211848524175659</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-0.53657291800043494</c:v>
@@ -8747,7 +8769,7 @@
                   <c:v>-0.99999020655070348</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.53657291800043494</c:v>
+                  <c:v>-0.54402111088936977</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.42016703682664092</c:v>
@@ -8759,10 +8781,10 @@
                   <c:v>-0.53657291800043494</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.42016703682664092</c:v>
+                  <c:v>-0.99999020655070348</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.99999020655070348</c:v>
+                  <c:v>0.41211848524175659</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-0.53657291800043494</c:v>
@@ -8974,7 +8996,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>('Sine Generator'!$C$35:$K$35,'Sine Generator'!$M$35:$U$35,'Sine Generator'!$X$35:$AF$35)</c:f>
+              <c:f>('Sine Generator'!$B$35:$J$35,'Sine Generator'!$L$35:$T$35,'Sine Generator'!$V$35:$AD$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -8997,13 +9019,13 @@
                   <c:v>0.76686097956288546</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.99852604482002105</c:v>
+                  <c:v>0.35463177089553088</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.36005942248831763</c:v>
+                  <c:v>-0.732122899539979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.76686097956288546</c:v>
+                  <c:v>-0.85334437267736873</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-0.99852604482002105</c:v>
@@ -9012,19 +9034,19 @@
                   <c:v>-0.36005942248831763</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.76686097956288546</c:v>
+                  <c:v>-0.85334437267736873</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-0.99852604482002105</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.36005942248831763</c:v>
+                  <c:v>-0.732122899539979</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.76686097956288546</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.99852604482002105</c:v>
+                  <c:v>0.35463177089553088</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-0.36005942248831763</c:v>
@@ -9036,7 +9058,7 @@
                   <c:v>-0.99852604482002105</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.36005942248831763</c:v>
+                  <c:v>-0.732122899539979</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.76686097956288546</c:v>
@@ -9048,10 +9070,10 @@
                   <c:v>-0.36005942248831763</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.76686097956288546</c:v>
+                  <c:v>-0.85334437267736873</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.99852604482002105</c:v>
+                  <c:v>0.35463177089553088</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-0.36005942248831763</c:v>
@@ -9263,7 +9285,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>('Sine Generator'!$C$36:$K$36,'Sine Generator'!$M$36:$U$36,'Sine Generator'!$X$36:$AF$36)</c:f>
+              <c:f>('Sine Generator'!$B$36:$J$36,'Sine Generator'!$L$36:$T$36,'Sine Generator'!$V$36:$AD$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -9286,13 +9308,13 @@
                   <c:v>0.99980092034821666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93215488395709845</c:v>
+                  <c:v>-0.34692875075972285</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9753900253929676</c:v>
+                  <c:v>-0.51263248339061407</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99980092034821666</c:v>
+                  <c:v>-0.74199445552936483</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.93215488395709845</c:v>
@@ -9301,19 +9323,19 @@
                   <c:v>0.9753900253929676</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99980092034821666</c:v>
+                  <c:v>-0.74199445552936483</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.93215488395709845</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.9753900253929676</c:v>
+                  <c:v>-0.51263248339061407</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.99980092034821666</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.93215488395709845</c:v>
+                  <c:v>-0.34692875075972285</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.9753900253929676</c:v>
@@ -9325,7 +9347,7 @@
                   <c:v>0.93215488395709845</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.9753900253929676</c:v>
+                  <c:v>-0.51263248339061407</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.99980092034821666</c:v>
@@ -9337,10 +9359,10 @@
                   <c:v>0.9753900253929676</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.99980092034821666</c:v>
+                  <c:v>-0.74199445552936483</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.93215488395709845</c:v>
+                  <c:v>-0.34692875075972285</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.9753900253929676</c:v>
@@ -9552,18 +9574,18 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$I$34:$K$34</c:f>
+              <c:f>'Sine Generator'!$H$34:$J$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-0.99999020655070348</c:v>
+                  <c:v>0.41211848524175659</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.53657291800043494</c:v>
+                  <c:v>-0.54402111088936977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42016703682664092</c:v>
+                  <c:v>-0.99999020655070348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9767,7 +9789,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$C$35:$E$35</c:f>
+              <c:f>'Sine Generator'!$B$35:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -9982,7 +10004,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$C$36:$E$36</c:f>
+              <c:f>'Sine Generator'!$B$36:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -10177,7 +10199,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$L$34</c:f>
+              <c:f>'Sine Generator'!$K$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10199,7 +10221,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$M$34:$U$34</c:f>
+              <c:f>'Sine Generator'!$L$34:$T$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -10210,19 +10232,19 @@
                   <c:v>-0.53657291800043494</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42016703682664092</c:v>
+                  <c:v>-0.99999020655070348</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-0.99999020655070348</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.53657291800043494</c:v>
+                  <c:v>-0.54402111088936977</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.42016703682664092</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.99999020655070348</c:v>
+                  <c:v>0.41211848524175659</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-0.53657291800043494</c:v>
@@ -10412,7 +10434,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sine Generator'!$L$35</c:f>
+              <c:f>'Sine Generator'!$K$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10434,7 +10456,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Sine Generator'!$M$35:$U$35</c:f>
+              <c:f>'Sine Generator'!$L$35:$T$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -10445,19 +10467,19 @@
                   <c:v>-0.36005942248831763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76686097956288546</c:v>
+                  <c:v>-0.85334437267736873</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-0.99852604482002105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.36005942248831763</c:v>
+                  <c:v>-0.732122899539979</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.76686097956288546</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.99852604482002105</c:v>
+                  <c:v>0.35463177089553088</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-0.36005942248831763</c:v>
@@ -33667,15 +33689,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>338666</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>34768</xdr:rowOff>
+      <xdr:colOff>329967</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>147850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>64402</xdr:rowOff>
+      <xdr:colOff>677101</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177485</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33703,15 +33725,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>361541</xdr:colOff>
+      <xdr:colOff>335445</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>144463</xdr:rowOff>
+      <xdr:rowOff>153161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>708675</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>174097</xdr:rowOff>
+      <xdr:colOff>682579</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>124</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33738,16 +33760,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>663</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>709747</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>10583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>347796</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>316047</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>29633</xdr:rowOff>
+      <xdr:rowOff>40216</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33774,16 +33796,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>344871</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>302539</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>7252</xdr:rowOff>
+      <xdr:rowOff>7253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>692005</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>649672</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>36885</xdr:rowOff>
+      <xdr:rowOff>36886</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33810,16 +33832,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>683340</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>641007</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>176487</xdr:rowOff>
+      <xdr:rowOff>176486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>289640</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>247307</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>26203</xdr:rowOff>
+      <xdr:rowOff>26202</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33846,14 +33868,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>728721</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>707554</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>10583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>335021</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>313854</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>40216</xdr:rowOff>
     </xdr:to>
@@ -33882,16 +33904,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>339552</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>328969</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>4449</xdr:rowOff>
+      <xdr:rowOff>15033</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>686685</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676102</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>34082</xdr:rowOff>
+      <xdr:rowOff>44666</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33918,14 +33940,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>675170</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685753</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>2275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>281470</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>292053</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>31908</xdr:rowOff>
     </xdr:to>
@@ -33954,16 +33976,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>6090</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>715173</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>10584</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>353224</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>321473</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>40217</xdr:rowOff>
+      <xdr:rowOff>29633</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33990,16 +34012,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>359577</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>5522</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>317243</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>174856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>706710</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>664377</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>35155</xdr:rowOff>
+      <xdr:rowOff>24572</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34026,16 +34048,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>713060</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>12856</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>657792</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>177485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>319360</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>264092</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>42489</xdr:rowOff>
+      <xdr:rowOff>18970</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34172,14 +34194,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>605825</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>41710</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>163490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>212125</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>71344</xdr:rowOff>
+      <xdr:rowOff>10453</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34207,15 +34229,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>4992</xdr:colOff>
+      <xdr:colOff>31087</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>155389</xdr:rowOff>
+      <xdr:rowOff>164088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>352125</xdr:colOff>
+      <xdr:colOff>378220</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>5106</xdr:rowOff>
+      <xdr:rowOff>13805</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34243,15 +34265,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>363166</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28389</xdr:rowOff>
+      <xdr:colOff>371865</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>176265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>710300</xdr:colOff>
+      <xdr:colOff>718999</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>58023</xdr:rowOff>
+      <xdr:rowOff>23228</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34279,15 +34301,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>455542</xdr:colOff>
+      <xdr:colOff>438145</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>135367</xdr:rowOff>
+      <xdr:rowOff>144065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>61842</xdr:colOff>
+      <xdr:colOff>44445</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>165001</xdr:rowOff>
+      <xdr:rowOff>173699</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34315,15 +34337,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>3498</xdr:colOff>
+      <xdr:colOff>46992</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>137487</xdr:rowOff>
+      <xdr:rowOff>146186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>350631</xdr:colOff>
+      <xdr:colOff>394125</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>167121</xdr:rowOff>
+      <xdr:rowOff>175820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34351,15 +34373,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>363167</xdr:colOff>
+      <xdr:colOff>319674</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>137485</xdr:rowOff>
+      <xdr:rowOff>154882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>710301</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>167119</xdr:rowOff>
+      <xdr:colOff>666808</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1845</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34423,15 +34445,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>254622</xdr:colOff>
+      <xdr:colOff>280718</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>178546</xdr:rowOff>
+      <xdr:rowOff>169847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>601755</xdr:colOff>
+      <xdr:colOff>627851</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>28263</xdr:rowOff>
+      <xdr:rowOff>19564</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34495,15 +34517,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>699123</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>30380</xdr:rowOff>
+      <xdr:colOff>664328</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>305423</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>60014</xdr:rowOff>
+      <xdr:colOff>270628</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>181795</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34603,15 +34625,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>463926</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19797</xdr:rowOff>
+      <xdr:colOff>490022</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>176372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>70226</xdr:colOff>
+      <xdr:colOff>96322</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>49431</xdr:rowOff>
+      <xdr:rowOff>23335</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34711,15 +34733,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>63876</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>31876</xdr:rowOff>
+      <xdr:colOff>72575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>179753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>411009</xdr:colOff>
+      <xdr:colOff>419708</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>61510</xdr:rowOff>
+      <xdr:rowOff>26716</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34749,13 +34771,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>51175</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>10584</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>398308</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>40217</xdr:rowOff>
+      <xdr:rowOff>29633</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34819,15 +34841,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>419724</xdr:colOff>
+      <xdr:colOff>393628</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>41959</xdr:rowOff>
+      <xdr:rowOff>15863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>26024</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>739311</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>71593</xdr:rowOff>
+      <xdr:rowOff>45497</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37554,10 +37576,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A31:AF470"/>
+  <dimension ref="A31:AD462"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37565,1237 +37587,1093 @@
     <col min="1" max="32" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A31" s="48" t="s">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A31" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="49"/>
+      <c r="B31" s="26">
+        <v>1</v>
+      </c>
       <c r="C31" s="26">
+        <v>2</v>
+      </c>
+      <c r="D31" s="26">
+        <v>3</v>
+      </c>
+      <c r="E31" s="26">
         <v>1</v>
       </c>
-      <c r="D31" s="26">
+      <c r="F31" s="26">
         <v>2</v>
       </c>
-      <c r="E31" s="26">
+      <c r="G31" s="26">
         <v>3</v>
       </c>
-      <c r="F31" s="26">
+      <c r="H31" s="26">
         <v>1</v>
       </c>
-      <c r="G31" s="26">
+      <c r="I31" s="26">
         <v>2</v>
       </c>
-      <c r="H31" s="26">
+      <c r="J31" s="26">
         <v>3</v>
       </c>
-      <c r="I31" s="26">
+      <c r="K31" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="26">
         <v>1</v>
       </c>
-      <c r="J31" s="26">
+      <c r="M31" s="26">
         <v>2</v>
       </c>
-      <c r="K31" s="26">
+      <c r="N31" s="26">
         <v>3</v>
       </c>
-      <c r="L31" s="44" t="s">
+      <c r="O31" s="26">
+        <v>1</v>
+      </c>
+      <c r="P31" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="26">
+        <v>3</v>
+      </c>
+      <c r="R31" s="26">
+        <v>1</v>
+      </c>
+      <c r="S31" s="26">
+        <v>2</v>
+      </c>
+      <c r="T31" s="26">
+        <v>3</v>
+      </c>
+      <c r="U31" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="M31" s="26">
+      <c r="V31" s="26">
         <v>1</v>
       </c>
-      <c r="N31" s="26">
+      <c r="W31" s="26">
         <v>2</v>
       </c>
-      <c r="O31" s="26">
+      <c r="X31" s="26">
         <v>3</v>
       </c>
-      <c r="P31" s="26">
+      <c r="Y31" s="26">
         <v>1</v>
       </c>
-      <c r="Q31" s="26">
+      <c r="Z31" s="26">
         <v>2</v>
       </c>
-      <c r="R31" s="26">
+      <c r="AA31" s="26">
         <v>3</v>
       </c>
-      <c r="S31" s="26">
+      <c r="AB31" s="26">
         <v>1</v>
       </c>
-      <c r="T31" s="26">
+      <c r="AC31" s="26">
         <v>2</v>
       </c>
-      <c r="U31" s="26">
+      <c r="AD31" s="26">
         <v>3</v>
       </c>
-      <c r="V31" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="W31" s="46"/>
-      <c r="X31" s="26">
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A32" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="Y31" s="26">
+      <c r="B32" s="26">
+        <f>B51</f>
+        <v>10</v>
+      </c>
+      <c r="C32" s="26">
+        <f>B51</f>
+        <v>10</v>
+      </c>
+      <c r="D32" s="26">
+        <f>B51</f>
+        <v>10</v>
+      </c>
+      <c r="E32" s="26">
+        <f>B52</f>
+        <v>10</v>
+      </c>
+      <c r="F32" s="26">
+        <f>B52</f>
+        <v>10</v>
+      </c>
+      <c r="G32" s="26">
+        <f>B52</f>
+        <v>10</v>
+      </c>
+      <c r="H32" s="26">
+        <f>B53</f>
+        <v>8</v>
+      </c>
+      <c r="I32" s="26">
+        <f>B53</f>
+        <v>8</v>
+      </c>
+      <c r="J32" s="26">
+        <f>B53</f>
+        <v>8</v>
+      </c>
+      <c r="K32" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" s="26">
+        <f>B51</f>
+        <v>10</v>
+      </c>
+      <c r="M32" s="26">
+        <f>B52</f>
+        <v>10</v>
+      </c>
+      <c r="N32" s="26">
+        <f>B53</f>
+        <v>8</v>
+      </c>
+      <c r="O32" s="26">
+        <f>B52</f>
+        <v>10</v>
+      </c>
+      <c r="P32" s="26">
+        <f>B53</f>
+        <v>8</v>
+      </c>
+      <c r="Q32" s="26">
+        <f>B51</f>
+        <v>10</v>
+      </c>
+      <c r="R32" s="26">
+        <f>B53</f>
+        <v>8</v>
+      </c>
+      <c r="S32" s="26">
+        <f>B51</f>
+        <v>10</v>
+      </c>
+      <c r="T32" s="26">
+        <f>B52</f>
+        <v>10</v>
+      </c>
+      <c r="U32" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="V32" s="26">
+        <f>B51</f>
+        <v>10</v>
+      </c>
+      <c r="W32" s="26">
+        <f>B53</f>
+        <v>8</v>
+      </c>
+      <c r="X32" s="26">
+        <f>B52</f>
+        <v>10</v>
+      </c>
+      <c r="Y32" s="26">
+        <f>B52</f>
+        <v>10</v>
+      </c>
+      <c r="Z32" s="26">
+        <f>B51</f>
+        <v>10</v>
+      </c>
+      <c r="AA32" s="26">
+        <f>B53</f>
+        <v>8</v>
+      </c>
+      <c r="AB32" s="26">
+        <f>B53</f>
+        <v>8</v>
+      </c>
+      <c r="AC32" s="26">
+        <f>B52</f>
+        <v>10</v>
+      </c>
+      <c r="AD32" s="26">
+        <f>B51</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A33" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Z31" s="26">
-        <v>3</v>
-      </c>
-      <c r="AA31" s="26">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="26">
+      <c r="B33" s="29">
+        <f>SQRT((B32^2)+(B31^2))</f>
+        <v>10.04987562112089</v>
+      </c>
+      <c r="C33" s="29">
+        <f>SQRT((C32^2)+(C31^2))</f>
+        <v>10.198039027185569</v>
+      </c>
+      <c r="D33" s="29">
+        <f>SQRT((D32^2)+(D31^2))</f>
+        <v>10.440306508910551</v>
+      </c>
+      <c r="E33" s="29">
+        <f>SQRT((E32^2)+(E31^2))</f>
+        <v>10.04987562112089</v>
+      </c>
+      <c r="F33" s="29">
+        <f>SQRT((F32^2)+(F31^2))</f>
+        <v>10.198039027185569</v>
+      </c>
+      <c r="G33" s="29">
+        <f>SQRT((G32^2)+(G31^2))</f>
+        <v>10.440306508910551</v>
+      </c>
+      <c r="H33" s="29">
+        <f>SQRT((H32^2)+(H31^2))</f>
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="I33" s="29">
+        <f>SQRT((I32^2)+(I31^2))</f>
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="J33" s="29">
+        <f>SQRT((J32^2)+(J31^2))</f>
+        <v>8.5440037453175304</v>
+      </c>
+      <c r="K33" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="AC31" s="26">
-        <v>3</v>
-      </c>
-      <c r="AD31" s="26">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="26">
+      <c r="L33" s="29">
+        <f>SQRT((L32^2)+(L31^2))</f>
+        <v>10.04987562112089</v>
+      </c>
+      <c r="M33" s="29">
+        <f>SQRT((M32^2)+(M31^2))</f>
+        <v>10.198039027185569</v>
+      </c>
+      <c r="N33" s="29">
+        <f>SQRT((N32^2)+(N31^2))</f>
+        <v>8.5440037453175304</v>
+      </c>
+      <c r="O33" s="29">
+        <f>SQRT((O32^2)+(O31^2))</f>
+        <v>10.04987562112089</v>
+      </c>
+      <c r="P33" s="29">
+        <f>SQRT((P32^2)+(P31^2))</f>
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="Q33" s="29">
+        <f>SQRT((Q32^2)+(Q31^2))</f>
+        <v>10.440306508910551</v>
+      </c>
+      <c r="R33" s="29">
+        <f>SQRT((R32^2)+(R31^2))</f>
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="S33" s="29">
+        <f>SQRT((S32^2)+(S31^2))</f>
+        <v>10.198039027185569</v>
+      </c>
+      <c r="T33" s="29">
+        <f>SQRT((T32^2)+(T31^2))</f>
+        <v>10.440306508910551</v>
+      </c>
+      <c r="U33" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="AF31" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A32" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="26">
-        <f>B41</f>
-        <v>10</v>
-      </c>
-      <c r="D32" s="26">
-        <f>B41</f>
-        <v>10</v>
-      </c>
-      <c r="E32" s="26">
-        <f>B41</f>
-        <v>10</v>
-      </c>
-      <c r="F32" s="26">
-        <f>B42</f>
-        <v>10</v>
-      </c>
-      <c r="G32" s="26">
-        <f>B42</f>
-        <v>10</v>
-      </c>
-      <c r="H32" s="26">
-        <f>B42</f>
-        <v>10</v>
-      </c>
-      <c r="I32" s="26">
-        <f>B43</f>
-        <v>10</v>
-      </c>
-      <c r="J32" s="26">
-        <f>B43</f>
-        <v>10</v>
-      </c>
-      <c r="K32" s="26">
-        <f>B43</f>
-        <v>10</v>
-      </c>
-      <c r="L32" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="M32" s="26">
-        <f>B41</f>
-        <v>10</v>
-      </c>
-      <c r="N32" s="26">
-        <f>B42</f>
-        <v>10</v>
-      </c>
-      <c r="O32" s="26">
-        <f>B43</f>
-        <v>10</v>
-      </c>
-      <c r="P32" s="26">
-        <f>B42</f>
-        <v>10</v>
-      </c>
-      <c r="Q32" s="26">
-        <f>B43</f>
-        <v>10</v>
-      </c>
-      <c r="R32" s="26">
-        <f>B41</f>
-        <v>10</v>
-      </c>
-      <c r="S32" s="26">
-        <f>B43</f>
-        <v>10</v>
-      </c>
-      <c r="T32" s="26">
-        <f>B41</f>
-        <v>10</v>
-      </c>
-      <c r="U32" s="26">
-        <f>B42</f>
-        <v>10</v>
-      </c>
-      <c r="V32" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W32" s="46"/>
-      <c r="X32" s="26">
-        <f>B41</f>
-        <v>10</v>
-      </c>
-      <c r="Y32" s="26">
-        <f>B43</f>
-        <v>10</v>
-      </c>
-      <c r="Z32" s="26">
-        <f>B42</f>
-        <v>10</v>
-      </c>
-      <c r="AA32" s="26">
-        <f>B42</f>
-        <v>10</v>
-      </c>
-      <c r="AB32" s="26">
-        <f>B41</f>
-        <v>10</v>
-      </c>
-      <c r="AC32" s="26">
-        <f>B43</f>
-        <v>10</v>
-      </c>
-      <c r="AD32" s="26">
-        <f>B43</f>
-        <v>10</v>
-      </c>
-      <c r="AE32" s="26">
-        <f>B42</f>
-        <v>10</v>
-      </c>
-      <c r="AF32" s="26">
-        <f>B41</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A33" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="29">
-        <f t="shared" ref="C33:K33" si="0">SQRT((C32^2)+(C31^2))</f>
+      <c r="V33" s="29">
+        <f>SQRT((V32^2)+(V31^2))</f>
         <v>10.04987562112089</v>
       </c>
-      <c r="D33" s="29">
+      <c r="W33" s="29">
+        <f>SQRT((W32^2)+(W31^2))</f>
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="X33" s="29">
+        <f>SQRT((X32^2)+(X31^2))</f>
+        <v>10.440306508910551</v>
+      </c>
+      <c r="Y33" s="29">
+        <f>SQRT((Y32^2)+(Y31^2))</f>
+        <v>10.04987562112089</v>
+      </c>
+      <c r="Z33" s="29">
+        <f>SQRT((Z32^2)+(Z31^2))</f>
+        <v>10.198039027185569</v>
+      </c>
+      <c r="AA33" s="29">
+        <f>SQRT((AA32^2)+(AA31^2))</f>
+        <v>8.5440037453175304</v>
+      </c>
+      <c r="AB33" s="29">
+        <f>SQRT((AB32^2)+(AB31^2))</f>
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="AC33" s="29">
+        <f>SQRT((AC32^2)+(AC31^2))</f>
+        <v>10.198039027185569</v>
+      </c>
+      <c r="AD33" s="29">
+        <f>SQRT((AD32^2)+(AD31^2))</f>
+        <v>10.440306508910551</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A34" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="29">
+        <f>SIN(B31+B32)</f>
+        <v>-0.99999020655070348</v>
+      </c>
+      <c r="C34" s="29">
+        <f>SIN(C31+C32)</f>
+        <v>-0.53657291800043494</v>
+      </c>
+      <c r="D34" s="29">
+        <f>SIN(D31+D32)</f>
+        <v>0.42016703682664092</v>
+      </c>
+      <c r="E34" s="29">
+        <f>SIN(E31+E32)</f>
+        <v>-0.99999020655070348</v>
+      </c>
+      <c r="F34" s="29">
+        <f>SIN(F31+F32)</f>
+        <v>-0.53657291800043494</v>
+      </c>
+      <c r="G34" s="29">
+        <f>SIN(G31+G32)</f>
+        <v>0.42016703682664092</v>
+      </c>
+      <c r="H34" s="29">
+        <f>SIN(H31+H32)</f>
+        <v>0.41211848524175659</v>
+      </c>
+      <c r="I34" s="29">
+        <f>SIN(I31+I32)</f>
+        <v>-0.54402111088936977</v>
+      </c>
+      <c r="J34" s="29">
+        <f>SIN(J31+J32)</f>
+        <v>-0.99999020655070348</v>
+      </c>
+      <c r="K34" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" s="29">
+        <f>SIN(L31+L32)</f>
+        <v>-0.99999020655070348</v>
+      </c>
+      <c r="M34" s="29">
+        <f>SIN(M31+M32)</f>
+        <v>-0.53657291800043494</v>
+      </c>
+      <c r="N34" s="29">
+        <f>SIN(N31+N32)</f>
+        <v>-0.99999020655070348</v>
+      </c>
+      <c r="O34" s="29">
+        <f>SIN(O31+O32)</f>
+        <v>-0.99999020655070348</v>
+      </c>
+      <c r="P34" s="29">
+        <f>SIN(P31+P32)</f>
+        <v>-0.54402111088936977</v>
+      </c>
+      <c r="Q34" s="29">
+        <f>SIN(Q31+Q32)</f>
+        <v>0.42016703682664092</v>
+      </c>
+      <c r="R34" s="29">
+        <f>SIN(R31+R32)</f>
+        <v>0.41211848524175659</v>
+      </c>
+      <c r="S34" s="29">
+        <f>SIN(S31+S32)</f>
+        <v>-0.53657291800043494</v>
+      </c>
+      <c r="T34" s="29">
+        <f>SIN(T31+T32)</f>
+        <v>0.42016703682664092</v>
+      </c>
+      <c r="U34" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="V34" s="29">
+        <f>SIN(V31+V32)</f>
+        <v>-0.99999020655070348</v>
+      </c>
+      <c r="W34" s="29">
+        <f>SIN(W31+W32)</f>
+        <v>-0.54402111088936977</v>
+      </c>
+      <c r="X34" s="29">
+        <f>SIN(X31+X32)</f>
+        <v>0.42016703682664092</v>
+      </c>
+      <c r="Y34" s="29">
+        <f>SIN(Y31+Y32)</f>
+        <v>-0.99999020655070348</v>
+      </c>
+      <c r="Z34" s="29">
+        <f>SIN(Z31+Z32)</f>
+        <v>-0.53657291800043494</v>
+      </c>
+      <c r="AA34" s="29">
+        <f>SIN(AA31+AA32)</f>
+        <v>-0.99999020655070348</v>
+      </c>
+      <c r="AB34" s="29">
+        <f>SIN(AB31+AB32)</f>
+        <v>0.41211848524175659</v>
+      </c>
+      <c r="AC34" s="29">
+        <f>SIN(AC31+AC32)</f>
+        <v>-0.53657291800043494</v>
+      </c>
+      <c r="AD34" s="29">
+        <f>SIN(AD31+AD32)</f>
+        <v>0.42016703682664092</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A35" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="29">
+        <f>SIN(B31+B33)</f>
+        <v>-0.99852604482002105</v>
+      </c>
+      <c r="C35" s="29">
+        <f>SIN(C31+C33)</f>
+        <v>-0.36005942248831763</v>
+      </c>
+      <c r="D35" s="29">
+        <f>SIN(D31+D33)</f>
+        <v>0.76686097956288546</v>
+      </c>
+      <c r="E35" s="29">
+        <f>SIN(E31+E33)</f>
+        <v>-0.99852604482002105</v>
+      </c>
+      <c r="F35" s="29">
+        <f>SIN(F31+F33)</f>
+        <v>-0.36005942248831763</v>
+      </c>
+      <c r="G35" s="29">
+        <f>SIN(G31+G33)</f>
+        <v>0.76686097956288546</v>
+      </c>
+      <c r="H35" s="29">
+        <f>SIN(H31+H33)</f>
+        <v>0.35463177089553088</v>
+      </c>
+      <c r="I35" s="29">
+        <f>SIN(I31+I33)</f>
+        <v>-0.732122899539979</v>
+      </c>
+      <c r="J35" s="29">
+        <f>SIN(J31+J33)</f>
+        <v>-0.85334437267736873</v>
+      </c>
+      <c r="K35" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="29">
+        <f>SIN(L31+L33)</f>
+        <v>-0.99852604482002105</v>
+      </c>
+      <c r="M35" s="29">
+        <f>SIN(M31+M33)</f>
+        <v>-0.36005942248831763</v>
+      </c>
+      <c r="N35" s="29">
+        <f>SIN(N31+N33)</f>
+        <v>-0.85334437267736873</v>
+      </c>
+      <c r="O35" s="29">
+        <f>SIN(O31+O33)</f>
+        <v>-0.99852604482002105</v>
+      </c>
+      <c r="P35" s="29">
+        <f>SIN(P31+P33)</f>
+        <v>-0.732122899539979</v>
+      </c>
+      <c r="Q35" s="29">
+        <f>SIN(Q31+Q33)</f>
+        <v>0.76686097956288546</v>
+      </c>
+      <c r="R35" s="29">
+        <f>SIN(R31+R33)</f>
+        <v>0.35463177089553088</v>
+      </c>
+      <c r="S35" s="29">
+        <f>SIN(S31+S33)</f>
+        <v>-0.36005942248831763</v>
+      </c>
+      <c r="T35" s="29">
+        <f>SIN(T31+T33)</f>
+        <v>0.76686097956288546</v>
+      </c>
+      <c r="U35" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="V35" s="29">
+        <f>SIN(V31+V33)</f>
+        <v>-0.99852604482002105</v>
+      </c>
+      <c r="W35" s="29">
+        <f>SIN(W31+W33)</f>
+        <v>-0.732122899539979</v>
+      </c>
+      <c r="X35" s="29">
+        <f>SIN(X31+X33)</f>
+        <v>0.76686097956288546</v>
+      </c>
+      <c r="Y35" s="29">
+        <f>SIN(Y31+Y33)</f>
+        <v>-0.99852604482002105</v>
+      </c>
+      <c r="Z35" s="29">
+        <f>SIN(Z31+Z33)</f>
+        <v>-0.36005942248831763</v>
+      </c>
+      <c r="AA35" s="29">
+        <f>SIN(AA31+AA33)</f>
+        <v>-0.85334437267736873</v>
+      </c>
+      <c r="AB35" s="29">
+        <f>SIN(AB31+AB33)</f>
+        <v>0.35463177089553088</v>
+      </c>
+      <c r="AC35" s="29">
+        <f>SIN(AC31+AC33)</f>
+        <v>-0.36005942248831763</v>
+      </c>
+      <c r="AD35" s="29">
+        <f>SIN(AD31+AD33)</f>
+        <v>0.76686097956288546</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A36" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="29">
+        <f t="shared" ref="B36:J36" si="0">SIN(B32+B33)</f>
+        <v>0.93215488395709845</v>
+      </c>
+      <c r="C36" s="29">
         <f t="shared" si="0"/>
-        <v>10.198039027185569</v>
-      </c>
-      <c r="E33" s="29">
+        <v>0.9753900253929676</v>
+      </c>
+      <c r="D36" s="29">
         <f t="shared" si="0"/>
-        <v>10.440306508910551</v>
-      </c>
-      <c r="F33" s="29">
+        <v>0.99980092034821666</v>
+      </c>
+      <c r="E36" s="29">
         <f t="shared" si="0"/>
-        <v>10.04987562112089</v>
-      </c>
-      <c r="G33" s="29">
+        <v>0.93215488395709845</v>
+      </c>
+      <c r="F36" s="29">
         <f t="shared" si="0"/>
-        <v>10.198039027185569</v>
-      </c>
-      <c r="H33" s="29">
+        <v>0.9753900253929676</v>
+      </c>
+      <c r="G36" s="29">
         <f t="shared" si="0"/>
-        <v>10.440306508910551</v>
-      </c>
-      <c r="I33" s="29">
+        <v>0.99980092034821666</v>
+      </c>
+      <c r="H36" s="29">
         <f t="shared" si="0"/>
-        <v>10.04987562112089</v>
-      </c>
-      <c r="J33" s="29">
+        <v>-0.34692875075972285</v>
+      </c>
+      <c r="I36" s="29">
         <f t="shared" si="0"/>
-        <v>10.198039027185569</v>
-      </c>
-      <c r="K33" s="29">
+        <v>-0.51263248339061407</v>
+      </c>
+      <c r="J36" s="29">
         <f t="shared" si="0"/>
-        <v>10.440306508910551</v>
-      </c>
-      <c r="L33" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="M33" s="29">
-        <f t="shared" ref="M33:U33" si="1">SQRT((M32^2)+(M31^2))</f>
-        <v>10.04987562112089</v>
-      </c>
-      <c r="N33" s="29">
+        <v>-0.74199445552936483</v>
+      </c>
+      <c r="K36" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36" s="29">
+        <f t="shared" ref="L36:T36" si="1">SIN(L32+L33)</f>
+        <v>0.93215488395709845</v>
+      </c>
+      <c r="M36" s="29">
         <f t="shared" si="1"/>
-        <v>10.198039027185569</v>
-      </c>
-      <c r="O33" s="29">
+        <v>0.9753900253929676</v>
+      </c>
+      <c r="N36" s="29">
         <f t="shared" si="1"/>
-        <v>10.440306508910551</v>
-      </c>
-      <c r="P33" s="29">
+        <v>-0.74199445552936483</v>
+      </c>
+      <c r="O36" s="29">
         <f t="shared" si="1"/>
-        <v>10.04987562112089</v>
-      </c>
-      <c r="Q33" s="29">
+        <v>0.93215488395709845</v>
+      </c>
+      <c r="P36" s="29">
         <f t="shared" si="1"/>
-        <v>10.198039027185569</v>
-      </c>
-      <c r="R33" s="29">
+        <v>-0.51263248339061407</v>
+      </c>
+      <c r="Q36" s="29">
         <f t="shared" si="1"/>
-        <v>10.440306508910551</v>
-      </c>
-      <c r="S33" s="29">
+        <v>0.99980092034821666</v>
+      </c>
+      <c r="R36" s="29">
         <f t="shared" si="1"/>
-        <v>10.04987562112089</v>
-      </c>
-      <c r="T33" s="29">
+        <v>-0.34692875075972285</v>
+      </c>
+      <c r="S36" s="29">
         <f t="shared" si="1"/>
-        <v>10.198039027185569</v>
-      </c>
-      <c r="U33" s="29">
+        <v>0.9753900253929676</v>
+      </c>
+      <c r="T36" s="29">
         <f t="shared" si="1"/>
-        <v>10.440306508910551</v>
-      </c>
-      <c r="V33" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="W33" s="46"/>
-      <c r="X33" s="29">
-        <f t="shared" ref="X33:AF33" si="2">SQRT((X32^2)+(X31^2))</f>
-        <v>10.04987562112089</v>
-      </c>
-      <c r="Y33" s="29">
+        <v>0.99980092034821666</v>
+      </c>
+      <c r="U36" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="V36" s="29">
+        <f t="shared" ref="V36:AD36" si="2">SIN(V32+V33)</f>
+        <v>0.93215488395709845</v>
+      </c>
+      <c r="W36" s="29">
         <f t="shared" si="2"/>
-        <v>10.198039027185569</v>
-      </c>
-      <c r="Z33" s="29">
+        <v>-0.51263248339061407</v>
+      </c>
+      <c r="X36" s="29">
         <f t="shared" si="2"/>
-        <v>10.440306508910551</v>
-      </c>
-      <c r="AA33" s="29">
+        <v>0.99980092034821666</v>
+      </c>
+      <c r="Y36" s="29">
         <f t="shared" si="2"/>
-        <v>10.04987562112089</v>
-      </c>
-      <c r="AB33" s="29">
+        <v>0.93215488395709845</v>
+      </c>
+      <c r="Z36" s="29">
         <f t="shared" si="2"/>
-        <v>10.198039027185569</v>
-      </c>
-      <c r="AC33" s="29">
+        <v>0.9753900253929676</v>
+      </c>
+      <c r="AA36" s="29">
         <f t="shared" si="2"/>
-        <v>10.440306508910551</v>
-      </c>
-      <c r="AD33" s="29">
+        <v>-0.74199445552936483</v>
+      </c>
+      <c r="AB36" s="29">
         <f t="shared" si="2"/>
-        <v>10.04987562112089</v>
-      </c>
-      <c r="AE33" s="29">
+        <v>-0.34692875075972285</v>
+      </c>
+      <c r="AC36" s="29">
         <f t="shared" si="2"/>
-        <v>10.198039027185569</v>
-      </c>
-      <c r="AF33" s="29">
+        <v>0.9753900253929676</v>
+      </c>
+      <c r="AD36" s="29">
         <f t="shared" si="2"/>
-        <v>10.440306508910551</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A34" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="29">
-        <f t="shared" ref="C34:K34" si="3">SIN(C31+C32)</f>
-        <v>-0.99999020655070348</v>
-      </c>
-      <c r="D34" s="29">
-        <f t="shared" si="3"/>
-        <v>-0.53657291800043494</v>
-      </c>
-      <c r="E34" s="29">
-        <f t="shared" si="3"/>
-        <v>0.42016703682664092</v>
-      </c>
-      <c r="F34" s="29">
-        <f t="shared" si="3"/>
-        <v>-0.99999020655070348</v>
-      </c>
-      <c r="G34" s="29">
-        <f t="shared" si="3"/>
-        <v>-0.53657291800043494</v>
-      </c>
-      <c r="H34" s="29">
-        <f t="shared" si="3"/>
-        <v>0.42016703682664092</v>
-      </c>
-      <c r="I34" s="29">
-        <f t="shared" si="3"/>
-        <v>-0.99999020655070348</v>
-      </c>
-      <c r="J34" s="29">
-        <f t="shared" si="3"/>
-        <v>-0.53657291800043494</v>
-      </c>
-      <c r="K34" s="29">
-        <f t="shared" si="3"/>
-        <v>0.42016703682664092</v>
-      </c>
-      <c r="L34" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="M34" s="29">
-        <f t="shared" ref="M34:U34" si="4">SIN(M31+M32)</f>
-        <v>-0.99999020655070348</v>
-      </c>
-      <c r="N34" s="29">
-        <f t="shared" si="4"/>
-        <v>-0.53657291800043494</v>
-      </c>
-      <c r="O34" s="29">
-        <f t="shared" si="4"/>
-        <v>0.42016703682664092</v>
-      </c>
-      <c r="P34" s="29">
-        <f t="shared" si="4"/>
-        <v>-0.99999020655070348</v>
-      </c>
-      <c r="Q34" s="29">
-        <f t="shared" si="4"/>
-        <v>-0.53657291800043494</v>
-      </c>
-      <c r="R34" s="29">
-        <f t="shared" si="4"/>
-        <v>0.42016703682664092</v>
-      </c>
-      <c r="S34" s="29">
-        <f t="shared" si="4"/>
-        <v>-0.99999020655070348</v>
-      </c>
-      <c r="T34" s="29">
-        <f t="shared" si="4"/>
-        <v>-0.53657291800043494</v>
-      </c>
-      <c r="U34" s="29">
-        <f t="shared" si="4"/>
-        <v>0.42016703682664092</v>
-      </c>
-      <c r="V34" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="W34" s="46"/>
-      <c r="X34" s="29">
-        <f t="shared" ref="X34:AF34" si="5">SIN(X31+X32)</f>
-        <v>-0.99999020655070348</v>
-      </c>
-      <c r="Y34" s="29">
-        <f t="shared" si="5"/>
-        <v>-0.53657291800043494</v>
-      </c>
-      <c r="Z34" s="29">
-        <f t="shared" si="5"/>
-        <v>0.42016703682664092</v>
-      </c>
-      <c r="AA34" s="29">
-        <f t="shared" si="5"/>
-        <v>-0.99999020655070348</v>
-      </c>
-      <c r="AB34" s="29">
-        <f t="shared" si="5"/>
-        <v>-0.53657291800043494</v>
-      </c>
-      <c r="AC34" s="29">
-        <f t="shared" si="5"/>
-        <v>0.42016703682664092</v>
-      </c>
-      <c r="AD34" s="29">
-        <f t="shared" si="5"/>
-        <v>-0.99999020655070348</v>
-      </c>
-      <c r="AE34" s="29">
-        <f t="shared" si="5"/>
-        <v>-0.53657291800043494</v>
-      </c>
-      <c r="AF34" s="29">
-        <f t="shared" si="5"/>
-        <v>0.42016703682664092</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A35" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="29">
-        <f t="shared" ref="C35:K35" si="6">SIN(C31+C33)</f>
-        <v>-0.99852604482002105</v>
-      </c>
-      <c r="D35" s="29">
-        <f t="shared" si="6"/>
-        <v>-0.36005942248831763</v>
-      </c>
-      <c r="E35" s="29">
-        <f t="shared" si="6"/>
-        <v>0.76686097956288546</v>
-      </c>
-      <c r="F35" s="29">
-        <f t="shared" si="6"/>
-        <v>-0.99852604482002105</v>
-      </c>
-      <c r="G35" s="29">
-        <f t="shared" si="6"/>
-        <v>-0.36005942248831763</v>
-      </c>
-      <c r="H35" s="29">
-        <f t="shared" si="6"/>
-        <v>0.76686097956288546</v>
-      </c>
-      <c r="I35" s="29">
-        <f t="shared" si="6"/>
-        <v>-0.99852604482002105</v>
-      </c>
-      <c r="J35" s="29">
-        <f t="shared" si="6"/>
-        <v>-0.36005942248831763</v>
-      </c>
-      <c r="K35" s="29">
-        <f t="shared" si="6"/>
-        <v>0.76686097956288546</v>
-      </c>
-      <c r="L35" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="M35" s="29">
-        <f t="shared" ref="M35:U35" si="7">SIN(M31+M33)</f>
-        <v>-0.99852604482002105</v>
-      </c>
-      <c r="N35" s="29">
-        <f t="shared" si="7"/>
-        <v>-0.36005942248831763</v>
-      </c>
-      <c r="O35" s="29">
-        <f t="shared" si="7"/>
-        <v>0.76686097956288546</v>
-      </c>
-      <c r="P35" s="29">
-        <f t="shared" si="7"/>
-        <v>-0.99852604482002105</v>
-      </c>
-      <c r="Q35" s="29">
-        <f t="shared" si="7"/>
-        <v>-0.36005942248831763</v>
-      </c>
-      <c r="R35" s="29">
-        <f t="shared" si="7"/>
-        <v>0.76686097956288546</v>
-      </c>
-      <c r="S35" s="29">
-        <f t="shared" si="7"/>
-        <v>-0.99852604482002105</v>
-      </c>
-      <c r="T35" s="29">
-        <f t="shared" si="7"/>
-        <v>-0.36005942248831763</v>
-      </c>
-      <c r="U35" s="29">
-        <f t="shared" si="7"/>
-        <v>0.76686097956288546</v>
-      </c>
-      <c r="V35" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="W35" s="46"/>
-      <c r="X35" s="29">
-        <f t="shared" ref="X35:AF35" si="8">SIN(X31+X33)</f>
-        <v>-0.99852604482002105</v>
-      </c>
-      <c r="Y35" s="29">
-        <f t="shared" si="8"/>
-        <v>-0.36005942248831763</v>
-      </c>
-      <c r="Z35" s="29">
-        <f t="shared" si="8"/>
-        <v>0.76686097956288546</v>
-      </c>
-      <c r="AA35" s="29">
-        <f t="shared" si="8"/>
-        <v>-0.99852604482002105</v>
-      </c>
-      <c r="AB35" s="29">
-        <f t="shared" si="8"/>
-        <v>-0.36005942248831763</v>
-      </c>
-      <c r="AC35" s="29">
-        <f t="shared" si="8"/>
-        <v>0.76686097956288546</v>
-      </c>
-      <c r="AD35" s="29">
-        <f t="shared" si="8"/>
-        <v>-0.99852604482002105</v>
-      </c>
-      <c r="AE35" s="29">
-        <f t="shared" si="8"/>
-        <v>-0.36005942248831763</v>
-      </c>
-      <c r="AF35" s="29">
-        <f t="shared" si="8"/>
-        <v>0.76686097956288546</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A36" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="29">
-        <f t="shared" ref="C36:K36" si="9">SIN(C32+C33)</f>
-        <v>0.93215488395709845</v>
-      </c>
-      <c r="D36" s="29">
-        <f t="shared" si="9"/>
-        <v>0.9753900253929676</v>
-      </c>
-      <c r="E36" s="29">
-        <f t="shared" si="9"/>
         <v>0.99980092034821666</v>
       </c>
-      <c r="F36" s="29">
-        <f t="shared" si="9"/>
-        <v>0.93215488395709845</v>
-      </c>
-      <c r="G36" s="29">
-        <f t="shared" si="9"/>
-        <v>0.9753900253929676</v>
-      </c>
-      <c r="H36" s="29">
-        <f t="shared" si="9"/>
-        <v>0.99980092034821666</v>
-      </c>
-      <c r="I36" s="29">
-        <f t="shared" si="9"/>
-        <v>0.93215488395709845</v>
-      </c>
-      <c r="J36" s="29">
-        <f t="shared" si="9"/>
-        <v>0.9753900253929676</v>
-      </c>
-      <c r="K36" s="29">
-        <f t="shared" si="9"/>
-        <v>0.99980092034821666</v>
-      </c>
-      <c r="L36" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="M36" s="29">
-        <f t="shared" ref="M36:U36" si="10">SIN(M32+M33)</f>
-        <v>0.93215488395709845</v>
-      </c>
-      <c r="N36" s="29">
-        <f t="shared" si="10"/>
-        <v>0.9753900253929676</v>
-      </c>
-      <c r="O36" s="29">
-        <f t="shared" si="10"/>
-        <v>0.99980092034821666</v>
-      </c>
-      <c r="P36" s="29">
-        <f t="shared" si="10"/>
-        <v>0.93215488395709845</v>
-      </c>
-      <c r="Q36" s="29">
-        <f t="shared" si="10"/>
-        <v>0.9753900253929676</v>
-      </c>
-      <c r="R36" s="29">
-        <f t="shared" si="10"/>
-        <v>0.99980092034821666</v>
-      </c>
-      <c r="S36" s="29">
-        <f t="shared" si="10"/>
-        <v>0.93215488395709845</v>
-      </c>
-      <c r="T36" s="29">
-        <f t="shared" si="10"/>
-        <v>0.9753900253929676</v>
-      </c>
-      <c r="U36" s="29">
-        <f t="shared" si="10"/>
-        <v>0.99980092034821666</v>
-      </c>
-      <c r="V36" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="W36" s="47"/>
-      <c r="X36" s="29">
-        <f t="shared" ref="X36:AF36" si="11">SIN(X32+X33)</f>
-        <v>0.93215488395709845</v>
-      </c>
-      <c r="Y36" s="29">
-        <f t="shared" si="11"/>
-        <v>0.9753900253929676</v>
-      </c>
-      <c r="Z36" s="29">
-        <f t="shared" si="11"/>
-        <v>0.99980092034821666</v>
-      </c>
-      <c r="AA36" s="29">
-        <f t="shared" si="11"/>
-        <v>0.93215488395709845</v>
-      </c>
-      <c r="AB36" s="29">
-        <f t="shared" si="11"/>
-        <v>0.9753900253929676</v>
-      </c>
-      <c r="AC36" s="29">
-        <f t="shared" si="11"/>
-        <v>0.99980092034821666</v>
-      </c>
-      <c r="AD36" s="29">
-        <f t="shared" si="11"/>
-        <v>0.93215488395709845</v>
-      </c>
-      <c r="AE36" s="29">
-        <f t="shared" si="11"/>
-        <v>0.9753900253929676</v>
-      </c>
-      <c r="AF36" s="29">
-        <f t="shared" si="11"/>
-        <v>0.99980092034821666</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
       <c r="O37" s="20"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
       <c r="W37" s="22"/>
       <c r="X37" s="22"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="21"/>
       <c r="AB37" s="21"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="21"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
       <c r="O38" s="20"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="21"/>
       <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
       <c r="W38" s="22"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="21"/>
       <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="21"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A39" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="B39" s="51"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
       <c r="O39" s="20"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
       <c r="W39" s="22"/>
       <c r="Z39" s="20"/>
       <c r="AA39" s="21"/>
       <c r="AB39" s="21"/>
-      <c r="AC39" s="21"/>
-      <c r="AD39" s="21"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A40" s="52"/>
-      <c r="B40" s="52"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="D40" s="20"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
       <c r="O40" s="20"/>
       <c r="P40" s="21"/>
       <c r="Q40" s="21"/>
       <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
       <c r="W40" s="22"/>
       <c r="Z40" s="20"/>
       <c r="AA40" s="21"/>
       <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A41" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="27">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="D41" s="20"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
       <c r="O41" s="20"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
       <c r="W41" s="22"/>
       <c r="Z41" s="20"/>
       <c r="AA41" s="21"/>
       <c r="AB41" s="21"/>
-      <c r="AC41" s="21"/>
-      <c r="AD41" s="21"/>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A42" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="43">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="D42" s="20"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
       <c r="O42" s="20"/>
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
       <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
       <c r="W42" s="22"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="21"/>
       <c r="AB42" s="21"/>
-      <c r="AC42" s="21"/>
-      <c r="AD42" s="21"/>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A43" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="43">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="D43" s="20"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
       <c r="O43" s="20"/>
       <c r="P43" s="21"/>
       <c r="Q43" s="21"/>
       <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
       <c r="W43" s="22"/>
       <c r="Z43" s="20"/>
       <c r="AA43" s="21"/>
       <c r="AB43" s="21"/>
-      <c r="AC43" s="21"/>
-      <c r="AD43" s="21"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="D44" s="20"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
       <c r="O44" s="20"/>
       <c r="P44" s="21"/>
       <c r="Q44" s="21"/>
       <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
       <c r="W44" s="22"/>
       <c r="Z44" s="20"/>
       <c r="AA44" s="21"/>
       <c r="AB44" s="21"/>
-      <c r="AC44" s="21"/>
-      <c r="AD44" s="21"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="D45" s="20"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
       <c r="O45" s="20"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
       <c r="W45" s="22"/>
       <c r="Z45" s="20"/>
       <c r="AA45" s="21"/>
       <c r="AB45" s="21"/>
-      <c r="AC45" s="21"/>
-      <c r="AD45" s="21"/>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="D46" s="20"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
       <c r="O46" s="20"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
       <c r="W46" s="22"/>
       <c r="Z46" s="20"/>
       <c r="AA46" s="21"/>
       <c r="AB46" s="21"/>
-      <c r="AC46" s="21"/>
-      <c r="AD46" s="21"/>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A48" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="27" t="s">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="45"/>
+      <c r="D49" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="28">
+        <v>1</v>
+      </c>
+      <c r="F49" s="28">
+        <v>2</v>
+      </c>
+      <c r="G49" s="28">
         <v>3</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="H49" s="28">
+        <v>4</v>
+      </c>
+      <c r="I49" s="28">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A49" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="27">
-        <v>70</v>
-      </c>
-      <c r="E49" s="27">
-        <v>65</v>
-      </c>
-      <c r="G49" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H49" s="28">
+      <c r="J49" s="28">
+        <v>6</v>
+      </c>
+      <c r="K49" s="28">
+        <v>7</v>
+      </c>
+      <c r="L49" s="28">
+        <v>8</v>
+      </c>
+      <c r="M49" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
+      <c r="D50" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="I49" s="28">
+      <c r="E50" s="28">
         <v>2</v>
       </c>
-      <c r="J49" s="28">
+      <c r="F50" s="28">
+        <v>6</v>
+      </c>
+      <c r="G50" s="28">
+        <v>7</v>
+      </c>
+      <c r="H50" s="28">
+        <v>8</v>
+      </c>
+      <c r="I50" s="28">
+        <v>10</v>
+      </c>
+      <c r="J50" s="28">
+        <v>12</v>
+      </c>
+      <c r="K50" s="28">
+        <v>14</v>
+      </c>
+      <c r="L50" s="28">
+        <v>16</v>
+      </c>
+      <c r="M50" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="28">
+      <c r="B51" s="27">
+        <v>10</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="27">
+        <f t="shared" ref="E51:M51" si="3">SQRT(E49^2+E50^2)</f>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="F51" s="27">
+        <f t="shared" si="3"/>
+        <v>6.324555320336759</v>
+      </c>
+      <c r="G51" s="27">
+        <f>SQRT(G49^2+G50^2)</f>
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="H51" s="27">
+        <f>SQRT(H49^2+H50^2)</f>
+        <v>8.9442719099991592</v>
+      </c>
+      <c r="I51" s="27">
+        <f t="shared" si="3"/>
+        <v>11.180339887498949</v>
+      </c>
+      <c r="J51" s="27">
+        <f t="shared" si="3"/>
+        <v>13.416407864998739</v>
+      </c>
+      <c r="K51" s="27">
+        <f t="shared" si="3"/>
+        <v>15.652475842498529</v>
+      </c>
+      <c r="L51" s="27">
+        <f t="shared" si="3"/>
+        <v>17.888543819998318</v>
+      </c>
+      <c r="M51" s="27">
+        <f t="shared" si="3"/>
+        <v>21.931712199461309</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="28">
+      <c r="B52" s="43">
+        <v>10</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="28">
+        <f t="shared" ref="E52:M52" si="4">SIN(E49+E50)</f>
+        <v>0.14112000805986721</v>
+      </c>
+      <c r="F52" s="28">
+        <f t="shared" si="4"/>
+        <v>0.98935824662338179</v>
+      </c>
+      <c r="G52" s="28">
+        <f>SIN(G49+G50)</f>
+        <v>-0.54402111088936977</v>
+      </c>
+      <c r="H52" s="28">
+        <f>SIN(H49+H50)</f>
+        <v>-0.53657291800043494</v>
+      </c>
+      <c r="I52" s="28">
+        <f t="shared" si="4"/>
+        <v>0.65028784015711683</v>
+      </c>
+      <c r="J52" s="28">
+        <f t="shared" si="4"/>
+        <v>-0.75098724677167605</v>
+      </c>
+      <c r="K52" s="28">
+        <f t="shared" si="4"/>
+        <v>0.83665563853605607</v>
+      </c>
+      <c r="L52" s="28">
+        <f t="shared" si="4"/>
+        <v>-0.90557836200662389</v>
+      </c>
+      <c r="M52" s="28">
+        <f t="shared" si="4"/>
+        <v>-0.66363388421296754</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="28">
-        <v>6</v>
-      </c>
-      <c r="N49" s="28">
+      <c r="B53" s="43">
+        <v>8</v>
+      </c>
+      <c r="D53" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="O49" s="28">
-        <v>8</v>
-      </c>
-      <c r="P49" s="28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A50" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="27">
-        <v>58</v>
-      </c>
-      <c r="E50" s="27">
-        <v>53</v>
-      </c>
-      <c r="G50" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="H50" s="28">
-        <v>2</v>
-      </c>
-      <c r="I50" s="28">
-        <v>6</v>
-      </c>
-      <c r="J50" s="28">
-        <v>7</v>
-      </c>
-      <c r="K50" s="28">
-        <v>8</v>
-      </c>
-      <c r="L50" s="28">
-        <v>10</v>
-      </c>
-      <c r="M50" s="28">
-        <v>12</v>
-      </c>
-      <c r="N50" s="28">
-        <v>14</v>
-      </c>
-      <c r="O50" s="28">
-        <v>16</v>
-      </c>
-      <c r="P50" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A51" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="27">
-        <v>78</v>
-      </c>
-      <c r="E51" s="27">
-        <v>73</v>
-      </c>
-      <c r="G51" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="27">
-        <f t="shared" ref="H51:P51" si="12">SQRT(H49^2+H50^2)</f>
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="I51" s="27">
-        <f t="shared" si="12"/>
-        <v>6.324555320336759</v>
-      </c>
-      <c r="J51" s="27">
-        <f>SQRT(J49^2+J50^2)</f>
-        <v>7.6157731058639087</v>
-      </c>
-      <c r="K51" s="27">
-        <f>SQRT(K49^2+K50^2)</f>
-        <v>8.9442719099991592</v>
-      </c>
-      <c r="L51" s="27">
-        <f t="shared" si="12"/>
-        <v>11.180339887498949</v>
-      </c>
-      <c r="M51" s="27">
-        <f t="shared" si="12"/>
-        <v>13.416407864998739</v>
-      </c>
-      <c r="N51" s="27">
-        <f t="shared" si="12"/>
-        <v>15.652475842498529</v>
-      </c>
-      <c r="O51" s="27">
-        <f t="shared" si="12"/>
-        <v>17.888543819998318</v>
-      </c>
-      <c r="P51" s="27">
-        <f t="shared" si="12"/>
-        <v>21.931712199461309</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A52" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="27">
-        <v>66</v>
-      </c>
-      <c r="E52" s="27">
-        <v>60</v>
-      </c>
-      <c r="G52" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" s="28">
-        <f t="shared" ref="H52:P52" si="13">SIN(H49+H50)</f>
-        <v>0.14112000805986721</v>
-      </c>
-      <c r="I52" s="28">
-        <f t="shared" si="13"/>
-        <v>0.98935824662338179</v>
-      </c>
-      <c r="J52" s="28">
-        <f>SIN(J49+J50)</f>
-        <v>-0.54402111088936977</v>
-      </c>
-      <c r="K52" s="28">
-        <f>SIN(K49+K50)</f>
-        <v>-0.53657291800043494</v>
-      </c>
-      <c r="L52" s="28">
-        <f t="shared" si="13"/>
-        <v>0.65028784015711683</v>
-      </c>
-      <c r="M52" s="28">
-        <f t="shared" si="13"/>
-        <v>-0.75098724677167605</v>
-      </c>
-      <c r="N52" s="28">
-        <f t="shared" si="13"/>
-        <v>0.83665563853605607</v>
-      </c>
-      <c r="O52" s="28">
-        <f t="shared" si="13"/>
-        <v>-0.90557836200662389</v>
-      </c>
-      <c r="P52" s="28">
-        <f t="shared" si="13"/>
-        <v>-0.66363388421296754</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A53" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="27">
-        <v>72</v>
-      </c>
-      <c r="E53" s="27">
-        <v>84</v>
-      </c>
-      <c r="G53" s="28" t="s">
-        <v>7</v>
+      <c r="E53" s="28">
+        <f>SIN(E49+E51)</f>
+        <v>-9.4334845332898973E-2</v>
+      </c>
+      <c r="F53" s="28">
+        <f t="shared" ref="F53:M53" si="5">SIN(F49+F51)</f>
+        <v>0.89130832680928707</v>
+      </c>
+      <c r="G53" s="28">
+        <f>SIN(G49+G51)</f>
+        <v>-0.92873836299859158</v>
       </c>
       <c r="H53" s="28">
         <f>SIN(H49+H51)</f>
-        <v>-9.4334845332898973E-2</v>
+        <v>0.36897066145361995</v>
       </c>
       <c r="I53" s="28">
-        <f t="shared" ref="I53:P53" si="14">SIN(I49+I51)</f>
-        <v>0.89130832680928707</v>
+        <f t="shared" si="5"/>
+        <v>-0.45500392298537712</v>
       </c>
       <c r="J53" s="28">
-        <f>SIN(J49+J51)</f>
-        <v>-0.92873836299859158</v>
+        <f t="shared" si="5"/>
+        <v>0.53697902729593072</v>
       </c>
       <c r="K53" s="28">
-        <f>SIN(K49+K51)</f>
-        <v>0.36897066145361995</v>
+        <f t="shared" si="5"/>
+        <v>-0.61416484253188031</v>
       </c>
       <c r="L53" s="28">
-        <f t="shared" si="14"/>
-        <v>-0.45500392298537712</v>
+        <f t="shared" si="5"/>
+        <v>0.68587295226943112</v>
       </c>
       <c r="M53" s="28">
-        <f t="shared" si="14"/>
-        <v>0.53697902729593072</v>
-      </c>
-      <c r="N53" s="28">
-        <f t="shared" si="14"/>
-        <v>-0.61416484253188031</v>
-      </c>
-      <c r="O53" s="28">
-        <f t="shared" si="14"/>
-        <v>0.68587295226943112</v>
-      </c>
-      <c r="P53" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>-0.46551315875966714</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A54" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="27">
-        <v>18</v>
-      </c>
-      <c r="E54" s="27">
-        <v>16</v>
-      </c>
-      <c r="G54" s="28" t="s">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D54" s="28" t="s">
         <v>8</v>
       </c>
+      <c r="E54" s="28">
+        <f t="shared" ref="E54:M54" si="6">SIN(E50+E51)</f>
+        <v>-0.8886878004613733</v>
+      </c>
+      <c r="F54" s="28">
+        <f t="shared" si="6"/>
+        <v>-0.23946549782849449</v>
+      </c>
+      <c r="G54" s="28">
+        <f>SIN(G50+G51)</f>
+        <v>0.88763770506555939</v>
+      </c>
       <c r="H54" s="28">
-        <f t="shared" ref="H54:P54" si="15">SIN(H50+H51)</f>
-        <v>-0.8886878004613733</v>
+        <f>SIN(H50+H51)</f>
+        <v>-0.94457861914824226</v>
       </c>
       <c r="I54" s="28">
-        <f t="shared" si="15"/>
-        <v>-0.23946549782849449</v>
+        <f t="shared" si="6"/>
+        <v>0.72484452632964014</v>
       </c>
       <c r="J54" s="28">
-        <f>SIN(J50+J51)</f>
-        <v>0.88763770506555939</v>
+        <f t="shared" si="6"/>
+        <v>0.27987762371460528</v>
       </c>
       <c r="K54" s="28">
-        <f>SIN(K50+K51)</f>
-        <v>-0.94457861914824226</v>
+        <f t="shared" si="6"/>
+        <v>-0.98149947552918093</v>
       </c>
       <c r="L54" s="28">
-        <f t="shared" si="15"/>
-        <v>0.72484452632964014</v>
+        <f t="shared" si="6"/>
+        <v>0.62018253360683284</v>
       </c>
       <c r="M54" s="28">
-        <f t="shared" si="15"/>
-        <v>0.27987762371460528</v>
-      </c>
-      <c r="N54" s="28">
-        <f t="shared" si="15"/>
-        <v>-0.98149947552918093</v>
-      </c>
-      <c r="O54" s="28">
-        <f t="shared" si="15"/>
-        <v>0.62018253360683284</v>
-      </c>
-      <c r="P54" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>-0.88709251199776751</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A55" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="27">
-        <v>10</v>
-      </c>
-      <c r="E55" s="27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="39" t="s">
         <v>34</v>
       </c>
@@ -38814,8 +38692,18 @@
       <c r="F57" s="41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H57" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="I57" s="56"/>
+      <c r="J57" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="34">
         <v>1</v>
       </c>
@@ -38835,8 +38723,18 @@
       <c r="F58" s="35">
         <v>1.0079</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H58" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="I58" s="54"/>
+      <c r="J58" s="27">
+        <v>70</v>
+      </c>
+      <c r="K58" s="27">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="34">
         <v>2</v>
       </c>
@@ -38856,8 +38754,18 @@
       <c r="F59" s="35">
         <v>4.0026000000000002</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H59" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="I59" s="54"/>
+      <c r="J59" s="27">
+        <v>58</v>
+      </c>
+      <c r="K59" s="27">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="34">
         <v>3</v>
       </c>
@@ -38877,8 +38785,18 @@
       <c r="F60" s="35">
         <v>6.9409999999999998</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H60" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="I60" s="54"/>
+      <c r="J60" s="27">
+        <v>78</v>
+      </c>
+      <c r="K60" s="27">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="34">
         <v>4</v>
       </c>
@@ -38898,8 +38816,18 @@
       <c r="F61" s="35">
         <v>9.0122</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H61" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="I61" s="54"/>
+      <c r="J61" s="27">
+        <v>66</v>
+      </c>
+      <c r="K61" s="27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="34">
         <v>5</v>
       </c>
@@ -38919,8 +38847,18 @@
       <c r="F62" s="35">
         <v>10.81</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H62" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="I62" s="54"/>
+      <c r="J62" s="27">
+        <v>72</v>
+      </c>
+      <c r="K62" s="27">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="34">
         <v>6</v>
       </c>
@@ -38934,14 +38872,24 @@
         <v>6</v>
       </c>
       <c r="E63" s="36">
-        <f t="shared" ref="E63:E126" si="16">SUM(F63,-D63)</f>
+        <f t="shared" ref="E63:E126" si="7">SUM(F63,-D63)</f>
         <v>6.0109999999999992</v>
       </c>
       <c r="F63" s="35">
         <v>12.010999999999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H63" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="I63" s="54"/>
+      <c r="J63" s="27">
+        <v>18</v>
+      </c>
+      <c r="K63" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="34">
         <v>7</v>
       </c>
@@ -38955,11 +38903,21 @@
         <v>7</v>
       </c>
       <c r="E64" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>7.07</v>
       </c>
       <c r="F64" s="35">
         <v>14.07</v>
+      </c>
+      <c r="H64" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="I64" s="54"/>
+      <c r="J64" s="27">
+        <v>10</v>
+      </c>
+      <c r="K64" s="27">
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -38976,7 +38934,7 @@
         <v>8</v>
       </c>
       <c r="E65" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>7.9993999999999996</v>
       </c>
       <c r="F65" s="35">
@@ -38997,7 +38955,7 @@
         <v>9</v>
       </c>
       <c r="E66" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>9.9980000000000011</v>
       </c>
       <c r="F66" s="35">
@@ -39018,7 +38976,7 @@
         <v>10</v>
       </c>
       <c r="E67" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>10.1797</v>
       </c>
       <c r="F67" s="35">
@@ -39039,7 +38997,7 @@
         <v>11</v>
       </c>
       <c r="E68" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>11.989799999999999</v>
       </c>
       <c r="F68" s="35">
@@ -39060,7 +39018,7 @@
         <v>12</v>
       </c>
       <c r="E69" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>12.305</v>
       </c>
       <c r="F69" s="35">
@@ -39081,7 +39039,7 @@
         <v>13</v>
       </c>
       <c r="E70" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>13.9815</v>
       </c>
       <c r="F70" s="35">
@@ -39102,7 +39060,7 @@
         <v>14</v>
       </c>
       <c r="E71" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>14.0855</v>
       </c>
       <c r="F71" s="35">
@@ -39123,7 +39081,7 @@
         <v>15</v>
       </c>
       <c r="E72" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>15.973800000000001</v>
       </c>
       <c r="F72" s="35">
@@ -39144,7 +39102,7 @@
         <v>16</v>
       </c>
       <c r="E73" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>16.066000000000003</v>
       </c>
       <c r="F73" s="35">
@@ -39165,7 +39123,7 @@
         <v>17</v>
       </c>
       <c r="E74" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>18.4527</v>
       </c>
       <c r="F74" s="35">
@@ -39186,7 +39144,7 @@
         <v>18</v>
       </c>
       <c r="E75" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>21.948</v>
       </c>
       <c r="F75" s="35">
@@ -39207,7 +39165,7 @@
         <v>19</v>
       </c>
       <c r="E76" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>20.098300000000002</v>
       </c>
       <c r="F76" s="35">
@@ -39228,7 +39186,7 @@
         <v>20</v>
       </c>
       <c r="E77" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>20.078000000000003</v>
       </c>
       <c r="F77" s="35">
@@ -39249,7 +39207,7 @@
         <v>21</v>
       </c>
       <c r="E78" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>23.9559</v>
       </c>
       <c r="F78" s="38">
@@ -39270,7 +39228,7 @@
         <v>22</v>
       </c>
       <c r="E79" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>25.880000000000003</v>
       </c>
       <c r="F79" s="38">
@@ -39291,7 +39249,7 @@
         <v>23</v>
       </c>
       <c r="E80" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>27.941499999999998</v>
       </c>
       <c r="F80" s="38">
@@ -39312,7 +39270,7 @@
         <v>24</v>
       </c>
       <c r="E81" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>27.996000000000002</v>
       </c>
       <c r="F81" s="35">
@@ -39333,7 +39291,7 @@
         <v>25</v>
       </c>
       <c r="E82" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>29.938049999999997</v>
       </c>
       <c r="F82" s="35">
@@ -39354,7 +39312,7 @@
         <v>26</v>
       </c>
       <c r="E83" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>29.847180999999999</v>
       </c>
       <c r="F83" s="35">
@@ -39375,7 +39333,7 @@
         <v>27</v>
       </c>
       <c r="E84" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>31.933199999999999</v>
       </c>
       <c r="F84" s="35">
@@ -39396,7 +39354,7 @@
         <v>28</v>
       </c>
       <c r="E85" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>30.689999999999998</v>
       </c>
       <c r="F85" s="35">
@@ -39417,7 +39375,7 @@
         <v>29</v>
       </c>
       <c r="E86" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>34.545999999999999</v>
       </c>
       <c r="F86" s="35">
@@ -39438,7 +39396,7 @@
         <v>30</v>
       </c>
       <c r="E87" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>35.39</v>
       </c>
       <c r="F87" s="35">
@@ -39459,7 +39417,7 @@
         <v>31</v>
       </c>
       <c r="E88" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>38.722999999999999</v>
       </c>
       <c r="F88" s="35">
@@ -39480,7 +39438,7 @@
         <v>32</v>
       </c>
       <c r="E89" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>40.61</v>
       </c>
       <c r="F89" s="35">
@@ -39501,7 +39459,7 @@
         <v>33</v>
       </c>
       <c r="E90" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>41.921599999999998</v>
       </c>
       <c r="F90" s="35">
@@ -39522,7 +39480,7 @@
         <v>34</v>
       </c>
       <c r="E91" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>44.959999999999994</v>
       </c>
       <c r="F91" s="35">
@@ -39543,7 +39501,7 @@
         <v>35</v>
       </c>
       <c r="E92" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>44.903999999999996</v>
       </c>
       <c r="F92" s="35">
@@ -39564,7 +39522,7 @@
         <v>36</v>
       </c>
       <c r="E93" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>47.8</v>
       </c>
       <c r="F93" s="35">
@@ -39585,7 +39543,7 @@
         <v>37</v>
       </c>
       <c r="E94" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>48.467799999999997</v>
       </c>
       <c r="F94" s="35">
@@ -39606,7 +39564,7 @@
         <v>38</v>
       </c>
       <c r="E95" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>49.620000000000005</v>
       </c>
       <c r="F95" s="35">
@@ -39627,7 +39585,7 @@
         <v>39</v>
       </c>
       <c r="E96" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>49.905900000000003</v>
       </c>
       <c r="F96" s="35">
@@ -39648,7 +39606,7 @@
         <v>40</v>
       </c>
       <c r="E97" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>51.224000000000004</v>
       </c>
       <c r="F97" s="35">
@@ -39669,7 +39627,7 @@
         <v>41</v>
       </c>
       <c r="E98" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>51.906400000000005</v>
       </c>
       <c r="F98" s="35">
@@ -39690,7 +39648,7 @@
         <v>42</v>
       </c>
       <c r="E99" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>53.94</v>
       </c>
       <c r="F99" s="35">
@@ -39711,7 +39669,7 @@
         <v>43</v>
       </c>
       <c r="E100" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>54.907200000000003</v>
       </c>
       <c r="F100" s="35">
@@ -39732,7 +39690,7 @@
         <v>44</v>
       </c>
       <c r="E101" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>57.069999999999993</v>
       </c>
       <c r="F101" s="38">
@@ -39753,7 +39711,7 @@
         <v>45</v>
       </c>
       <c r="E102" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>57.905522360000006</v>
       </c>
       <c r="F102" s="38">
@@ -39774,7 +39732,7 @@
         <v>46</v>
       </c>
       <c r="E103" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>60.42</v>
       </c>
       <c r="F103" s="38">
@@ -39795,7 +39753,7 @@
         <v>47</v>
       </c>
       <c r="E104" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>60.868200000000002</v>
       </c>
       <c r="F104" s="38">
@@ -39816,7 +39774,7 @@
         <v>48</v>
       </c>
       <c r="E105" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>66.411000000000001</v>
       </c>
       <c r="F105" s="38">
@@ -39837,7 +39795,7 @@
         <v>49</v>
       </c>
       <c r="E106" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>65.819999999999993</v>
       </c>
       <c r="F106" s="38">
@@ -39858,7 +39816,7 @@
         <v>50</v>
       </c>
       <c r="E107" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>68.709999999999994</v>
       </c>
       <c r="F107" s="38">
@@ -39879,7 +39837,7 @@
         <v>51</v>
       </c>
       <c r="E108" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>70.75</v>
       </c>
       <c r="F108" s="38">
@@ -39900,7 +39858,7 @@
         <v>52</v>
       </c>
       <c r="E109" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>75.599999999999994</v>
       </c>
       <c r="F109" s="38">
@@ -39921,7 +39879,7 @@
         <v>53</v>
       </c>
       <c r="E110" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>73.904499999999999</v>
       </c>
       <c r="F110" s="38">
@@ -39942,7 +39900,7 @@
         <v>54</v>
       </c>
       <c r="E111" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>77.289999999999992</v>
       </c>
       <c r="F111" s="38">
@@ -39963,7 +39921,7 @@
         <v>55</v>
       </c>
       <c r="E112" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>77.905399999999986</v>
       </c>
       <c r="F112" s="38">
@@ -39984,7 +39942,7 @@
         <v>56</v>
       </c>
       <c r="E113" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>81.326999999999998</v>
       </c>
       <c r="F113" s="38">
@@ -40005,7 +39963,7 @@
         <v>57</v>
       </c>
       <c r="E114" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>81.905499999999989</v>
       </c>
       <c r="F114" s="38">
@@ -40026,7 +39984,7 @@
         <v>58</v>
       </c>
       <c r="E115" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>82.115000000000009</v>
       </c>
       <c r="F115" s="38">
@@ -40047,7 +40005,7 @@
         <v>59</v>
       </c>
       <c r="E116" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>81.90764999999999</v>
       </c>
       <c r="F116" s="38">
@@ -40068,7 +40026,7 @@
         <v>60</v>
       </c>
       <c r="E117" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>84.240000000000009</v>
       </c>
       <c r="F117" s="38">
@@ -40089,7 +40047,7 @@
         <v>61</v>
       </c>
       <c r="E118" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>83.912700000000001</v>
       </c>
       <c r="F118" s="38">
@@ -40110,7 +40068,7 @@
         <v>62</v>
       </c>
       <c r="E119" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>88.360000000000014</v>
       </c>
       <c r="F119" s="38">
@@ -40131,7 +40089,7 @@
         <v>63</v>
       </c>
       <c r="E120" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>88.965000000000003</v>
       </c>
       <c r="F120" s="38">
@@ -40152,7 +40110,7 @@
         <v>64</v>
       </c>
       <c r="E121" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>93.25</v>
       </c>
       <c r="F121" s="38">
@@ -40173,7 +40131,7 @@
         <v>65</v>
       </c>
       <c r="E122" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>93.925299999999993</v>
       </c>
       <c r="F122" s="38">
@@ -40194,7 +40152,7 @@
         <v>66</v>
       </c>
       <c r="E123" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>96.5</v>
       </c>
       <c r="F123" s="38">
@@ -40215,7 +40173,7 @@
         <v>67</v>
       </c>
       <c r="E124" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>97.930299999999988</v>
       </c>
       <c r="F124" s="38">
@@ -40236,7 +40194,7 @@
         <v>68</v>
       </c>
       <c r="E125" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>99.259999999999991</v>
       </c>
       <c r="F125" s="38">
@@ -40257,7 +40215,7 @@
         <v>69</v>
       </c>
       <c r="E126" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>99.934200000000004</v>
       </c>
       <c r="F126" s="38">
@@ -40278,7 +40236,7 @@
         <v>70</v>
       </c>
       <c r="E127" s="36">
-        <f t="shared" ref="E127:E163" si="17">SUM(F127,-D127)</f>
+        <f t="shared" ref="E127:E163" si="8">SUM(F127,-D127)</f>
         <v>103.03999999999999</v>
       </c>
       <c r="F127" s="37">
@@ -40299,14 +40257,14 @@
         <v>71</v>
       </c>
       <c r="E128" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>103.96700000000001</v>
       </c>
       <c r="F128" s="38">
         <v>174.96700000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="37">
         <v>72</v>
       </c>
@@ -40320,14 +40278,14 @@
         <v>72</v>
       </c>
       <c r="E129" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>106.49000000000001</v>
       </c>
       <c r="F129" s="38">
         <v>178.49</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="37">
         <v>73</v>
       </c>
@@ -40341,14 +40299,14 @@
         <v>73</v>
       </c>
       <c r="E130" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>107.9479</v>
       </c>
       <c r="F130" s="38">
         <v>180.9479</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="37">
         <v>74</v>
       </c>
@@ -40362,14 +40320,14 @@
         <v>74</v>
       </c>
       <c r="E131" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>109.85</v>
       </c>
       <c r="F131" s="38">
         <v>183.85</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="37">
         <v>75</v>
       </c>
@@ -40383,14 +40341,14 @@
         <v>75</v>
       </c>
       <c r="E132" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>111.20699999999999</v>
       </c>
       <c r="F132" s="38">
         <v>186.20699999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="37">
         <v>76</v>
       </c>
@@ -40404,14 +40362,14 @@
         <v>76</v>
       </c>
       <c r="E133" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>114.19999999999999</v>
       </c>
       <c r="F133" s="38">
         <v>190.2</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="37">
         <v>77</v>
       </c>
@@ -40425,14 +40383,14 @@
         <v>77</v>
       </c>
       <c r="E134" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>115.22</v>
       </c>
       <c r="F134" s="38">
         <v>192.22</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="37">
         <v>78</v>
       </c>
@@ -40446,14 +40404,14 @@
         <v>78</v>
       </c>
       <c r="E135" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>117.08000000000001</v>
       </c>
       <c r="F135" s="38">
         <v>195.08</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" s="37">
         <v>79</v>
       </c>
@@ -40467,14 +40425,14 @@
         <v>79</v>
       </c>
       <c r="E136" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>117.9665</v>
       </c>
       <c r="F136" s="38">
         <v>196.9665</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="37">
         <v>80</v>
       </c>
@@ -40488,14 +40446,14 @@
         <v>80</v>
       </c>
       <c r="E137" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>120.59</v>
       </c>
       <c r="F137" s="38">
         <v>200.59</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="37">
         <v>81</v>
       </c>
@@ -40509,14 +40467,14 @@
         <v>81</v>
       </c>
       <c r="E138" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>123.38329999999999</v>
       </c>
       <c r="F138" s="38">
         <v>204.38329999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="37">
         <v>82</v>
       </c>
@@ -40530,14 +40488,14 @@
         <v>82</v>
       </c>
       <c r="E139" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>125.19999999999999</v>
       </c>
       <c r="F139" s="38">
         <v>207.2</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="37">
         <v>83</v>
       </c>
@@ -40551,14 +40509,14 @@
         <v>83</v>
       </c>
       <c r="E140" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>125.9804</v>
       </c>
       <c r="F140" s="38">
         <v>208.9804</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="37">
         <v>84</v>
       </c>
@@ -40572,14 +40530,14 @@
         <v>84</v>
       </c>
       <c r="E141" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>124.98245270000001</v>
       </c>
       <c r="F141" s="38">
         <v>208.98245270000001</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="37">
         <v>85</v>
       </c>
@@ -40593,14 +40551,14 @@
         <v>85</v>
       </c>
       <c r="E142" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>124.9871</v>
       </c>
       <c r="F142" s="38">
         <v>209.9871</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="37">
         <v>86</v>
       </c>
@@ -40614,14 +40572,14 @@
         <v>86</v>
       </c>
       <c r="E143" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>136.01759999999999</v>
       </c>
       <c r="F143" s="38">
         <v>222.01759999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="37">
         <v>87</v>
       </c>
@@ -40635,12 +40593,13 @@
         <v>87</v>
       </c>
       <c r="E144" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>136.0197</v>
       </c>
       <c r="F144" s="38">
         <v>223.0197</v>
       </c>
+      <c r="J144" s="32"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" s="37">
@@ -40656,12 +40615,13 @@
         <v>88</v>
       </c>
       <c r="E145" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>138.02539999999999</v>
       </c>
       <c r="F145" s="38">
         <v>226.02539999999999</v>
       </c>
+      <c r="J145" s="33"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" s="37">
@@ -40677,12 +40637,13 @@
         <v>89</v>
       </c>
       <c r="E146" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>138.02780000000001</v>
       </c>
       <c r="F146" s="38">
         <v>227.02780000000001</v>
       </c>
+      <c r="J146" s="30"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" s="37">
@@ -40698,12 +40659,13 @@
         <v>90</v>
       </c>
       <c r="E147" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>142.03809999999999</v>
       </c>
       <c r="F147" s="38">
         <v>232.03809999999999</v>
       </c>
+      <c r="J147" s="31"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" s="37">
@@ -40719,12 +40681,13 @@
         <v>91</v>
       </c>
       <c r="E148" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>140.0359</v>
       </c>
       <c r="F148" s="38">
         <v>231.0359</v>
       </c>
+      <c r="J148" s="32"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" s="37">
@@ -40740,12 +40703,13 @@
         <v>92</v>
       </c>
       <c r="E149" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>146.02889999999999</v>
       </c>
       <c r="F149" s="38">
         <v>238.02889999999999</v>
       </c>
+      <c r="J149" s="33"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" s="37">
@@ -40761,12 +40725,13 @@
         <v>93</v>
       </c>
       <c r="E150" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>144.04820000000001</v>
       </c>
       <c r="F150" s="38">
         <v>237.04820000000001</v>
       </c>
+      <c r="J150" s="30"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" s="37">
@@ -40782,12 +40747,13 @@
         <v>94</v>
       </c>
       <c r="E151" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>150.0642</v>
       </c>
       <c r="F151" s="38">
         <v>244.0642</v>
       </c>
+      <c r="J151" s="31"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" s="37">
@@ -40803,7 +40769,7 @@
         <v>95</v>
       </c>
       <c r="E152" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>148.06139999999999</v>
       </c>
       <c r="F152" s="38">
@@ -40825,7 +40791,7 @@
         <v>96</v>
       </c>
       <c r="E153" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>151.0703</v>
       </c>
       <c r="F153" s="38">
@@ -40847,7 +40813,7 @@
         <v>97</v>
       </c>
       <c r="E154" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>150.0703</v>
       </c>
       <c r="F154" s="38">
@@ -40869,7 +40835,7 @@
         <v>98</v>
       </c>
       <c r="E155" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>153.0796</v>
       </c>
       <c r="F155" s="38">
@@ -40891,7 +40857,7 @@
         <v>99</v>
       </c>
       <c r="E156" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>153.083</v>
       </c>
       <c r="F156" s="38">
@@ -40913,7 +40879,7 @@
         <v>100</v>
       </c>
       <c r="E157" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>157.0951</v>
       </c>
       <c r="F157" s="38">
@@ -40935,7 +40901,7 @@
         <v>101</v>
       </c>
       <c r="E158" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>157.10000000000002</v>
       </c>
       <c r="F158" s="38">
@@ -40957,7 +40923,7 @@
         <v>102</v>
       </c>
       <c r="E159" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>157.10090000000002</v>
       </c>
       <c r="F159" s="38">
@@ -40979,7 +40945,7 @@
         <v>103</v>
       </c>
       <c r="E160" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>159.11000000000001</v>
       </c>
       <c r="F160" s="38">
@@ -41001,7 +40967,7 @@
         <v>104</v>
       </c>
       <c r="E161" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>157.11000000000001</v>
       </c>
       <c r="F161" s="38">
@@ -41023,7 +40989,7 @@
         <v>105</v>
       </c>
       <c r="E162" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>157.11399999999998</v>
       </c>
       <c r="F162" s="38">
@@ -41045,7 +41011,7 @@
         <v>106</v>
       </c>
       <c r="E163" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>157.11799999999999</v>
       </c>
       <c r="F163" s="38">
@@ -41949,60 +41915,23 @@
     </row>
     <row r="462" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J462" s="30"/>
-    </row>
-    <row r="463" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J463" s="31"/>
-    </row>
-    <row r="464" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J464" s="32"/>
-    </row>
-    <row r="465" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J465" s="33"/>
-    </row>
-    <row r="466" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J466" s="30"/>
-    </row>
-    <row r="467" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J467" s="31"/>
-    </row>
-    <row r="468" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J468" s="32"/>
-    </row>
-    <row r="469" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J469" s="33"/>
-    </row>
-    <row r="470" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J470" s="30"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
-    <protectedRange sqref="B41:B43" name="Range1"/>
+    <protectedRange sqref="B51:B53" name="Range1"/>
   </protectedRanges>
-  <mergeCells count="21">
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V34:W34"/>
+  <mergeCells count="8">
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="A49:B50"/>
   </mergeCells>
-  <conditionalFormatting sqref="C34:K36 M34:U36 AA37:AD46 X34:AF36 P37:S46 E37:I37 F38:I38 E39:I46 H52:P54">
+  <conditionalFormatting sqref="B34:J36 L34:T36 AA37:AB46 V34:AD36 P37:R46 E37:H37 F38:H38 E39:H46 E52:M54">
     <cfRule type="cellIs" dxfId="2" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -42010,7 +41939,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51:P51">
+  <conditionalFormatting sqref="E51:M51">
     <cfRule type="duplicateValues" dxfId="0" priority="22"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42189,15 +42118,15 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -42211,7 +42140,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="54"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="1" t="s">
         <v>145</v>
       </c>
@@ -42226,11 +42155,11 @@
       <c r="A17" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="25"/>
